--- a/data/trans_orig/EDAD_G2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/EDAD_G2-Edad-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Grupo de edad en País Vasco</t>
+          <t>Grupo de edad en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -8053,7 +8053,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Grupo de edad en Andalucia</t>
+          <t>Grupo de edad en Andalucia (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -15560,7 +15560,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Grupo de edad en C.Valenciana</t>
+          <t>Grupo de edad en C.Valenciana (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -23067,7 +23067,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Grupo de edad en Barcelona</t>
+          <t>Grupo de edad en Barcelona (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/EDAD_G2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/EDAD_G2-Edad-trans_orig.xlsx
@@ -1414,7 +1414,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>63488</t>
+          <t>77753</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>62713</t>
+          <t>66683</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>126201</t>
+          <t>144436</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
@@ -1527,17 +1527,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>63488</t>
+          <t>77753</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>63488</t>
+          <t>77753</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>63488</t>
+          <t>77753</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1562,17 +1562,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>62713</t>
+          <t>66683</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>62713</t>
+          <t>66683</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>62713</t>
+          <t>66683</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1597,17 +1597,17 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>126201</t>
+          <t>144436</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>126201</t>
+          <t>144436</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>126201</t>
+          <t>144436</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>69529</t>
+          <t>75767</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>63694</t>
+          <t>69403</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
@@ -2279,7 +2279,7 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>133223</t>
+          <t>145171</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
@@ -2435,17 +2435,17 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>69529</t>
+          <t>75767</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>69529</t>
+          <t>75767</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>69529</t>
+          <t>75767</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2470,17 +2470,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>63694</t>
+          <t>69403</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>63694</t>
+          <t>69403</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>63694</t>
+          <t>69403</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2505,17 +2505,17 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>133223</t>
+          <t>145171</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>133223</t>
+          <t>145171</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>133223</t>
+          <t>145171</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -3004,7 +3004,7 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>95320</t>
+          <t>104353</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -3039,7 +3039,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>98760</t>
+          <t>111458</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
@@ -3074,7 +3074,7 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>194080</t>
+          <t>215811</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
@@ -3343,17 +3343,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>95320</t>
+          <t>104353</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>95320</t>
+          <t>104353</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>95320</t>
+          <t>104353</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3378,17 +3378,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>98760</t>
+          <t>111458</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>98760</t>
+          <t>111458</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>98760</t>
+          <t>111458</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3413,17 +3413,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>194080</t>
+          <t>215811</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>194080</t>
+          <t>215811</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>194080</t>
+          <t>215811</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>139936</t>
+          <t>145717</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
@@ -3834,7 +3834,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>138685</t>
+          <t>153072</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
@@ -3869,7 +3869,7 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>278621</t>
+          <t>298789</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
@@ -4251,17 +4251,17 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>139936</t>
+          <t>145717</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>139936</t>
+          <t>145717</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>139936</t>
+          <t>145717</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -4286,17 +4286,17 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>138685</t>
+          <t>153072</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>138685</t>
+          <t>153072</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>138685</t>
+          <t>153072</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -4321,17 +4321,17 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>278621</t>
+          <t>298789</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>278621</t>
+          <t>298789</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>278621</t>
+          <t>298789</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
@@ -4594,7 +4594,7 @@
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>127051</t>
+          <t>130180</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
@@ -4629,7 +4629,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>148023</t>
+          <t>152870</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
@@ -4664,7 +4664,7 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>275074</t>
+          <t>283051</t>
         </is>
       </c>
       <c r="S38" s="2" t="inlineStr">
@@ -5159,17 +5159,17 @@
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>127051</t>
+          <t>130180</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>127051</t>
+          <t>130180</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>127051</t>
+          <t>130180</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
@@ -5194,17 +5194,17 @@
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>148023</t>
+          <t>152870</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>148023</t>
+          <t>152870</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>148023</t>
+          <t>152870</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
@@ -5229,17 +5229,17 @@
       </c>
       <c r="R43" s="2" t="inlineStr">
         <is>
-          <t>275074</t>
+          <t>283051</t>
         </is>
       </c>
       <c r="S43" s="2" t="inlineStr">
         <is>
-          <t>275074</t>
+          <t>283051</t>
         </is>
       </c>
       <c r="T43" s="2" t="inlineStr">
         <is>
-          <t>275074</t>
+          <t>283051</t>
         </is>
       </c>
       <c r="U43" s="2" t="inlineStr">
@@ -5389,7 +5389,7 @@
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>108316</t>
+          <t>105395</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
@@ -5424,7 +5424,7 @@
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>115307</t>
+          <t>116410</t>
         </is>
       </c>
       <c r="L45" s="2" t="inlineStr">
@@ -5459,7 +5459,7 @@
       </c>
       <c r="R45" s="2" t="inlineStr">
         <is>
-          <t>223623</t>
+          <t>221804</t>
         </is>
       </c>
       <c r="S45" s="2" t="inlineStr">
@@ -6067,17 +6067,17 @@
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>108316</t>
+          <t>105395</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>108316</t>
+          <t>105395</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>108316</t>
+          <t>105395</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
@@ -6102,17 +6102,17 @@
       </c>
       <c r="K51" s="2" t="inlineStr">
         <is>
-          <t>115307</t>
+          <t>116410</t>
         </is>
       </c>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>115307</t>
+          <t>116410</t>
         </is>
       </c>
       <c r="M51" s="2" t="inlineStr">
         <is>
-          <t>115307</t>
+          <t>116410</t>
         </is>
       </c>
       <c r="N51" s="2" t="inlineStr">
@@ -6137,17 +6137,17 @@
       </c>
       <c r="R51" s="2" t="inlineStr">
         <is>
-          <t>223623</t>
+          <t>221804</t>
         </is>
       </c>
       <c r="S51" s="2" t="inlineStr">
         <is>
-          <t>223623</t>
+          <t>221804</t>
         </is>
       </c>
       <c r="T51" s="2" t="inlineStr">
         <is>
-          <t>223623</t>
+          <t>221804</t>
         </is>
       </c>
       <c r="U51" s="2" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
@@ -6219,7 +6219,7 @@
       </c>
       <c r="K52" s="2" t="inlineStr">
         <is>
-          <t>134049</t>
+          <t>132476</t>
         </is>
       </c>
       <c r="L52" s="2" t="inlineStr">
@@ -6254,7 +6254,7 @@
       </c>
       <c r="R52" s="2" t="inlineStr">
         <is>
-          <t>230404</t>
+          <t>221699</t>
         </is>
       </c>
       <c r="S52" s="2" t="inlineStr">
@@ -6975,17 +6975,17 @@
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="F59" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="G59" s="2" t="inlineStr">
@@ -7010,17 +7010,17 @@
       </c>
       <c r="K59" s="2" t="inlineStr">
         <is>
-          <t>134049</t>
+          <t>132476</t>
         </is>
       </c>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>134049</t>
+          <t>132476</t>
         </is>
       </c>
       <c r="M59" s="2" t="inlineStr">
         <is>
-          <t>134049</t>
+          <t>132476</t>
         </is>
       </c>
       <c r="N59" s="2" t="inlineStr">
@@ -7045,17 +7045,17 @@
       </c>
       <c r="R59" s="2" t="inlineStr">
         <is>
-          <t>230404</t>
+          <t>221699</t>
         </is>
       </c>
       <c r="S59" s="2" t="inlineStr">
         <is>
-          <t>230404</t>
+          <t>221699</t>
         </is>
       </c>
       <c r="T59" s="2" t="inlineStr">
         <is>
-          <t>230404</t>
+          <t>221699</t>
         </is>
       </c>
       <c r="U59" s="2" t="inlineStr">
@@ -7092,32 +7092,32 @@
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t>88325</t>
+          <t>81641</t>
         </is>
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>105357</t>
+          <t>96284</t>
         </is>
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>13,77%</t>
+          <t>12,25%</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>12,62%</t>
+          <t>11,21%</t>
         </is>
       </c>
       <c r="I60" s="2" t="inlineStr">
         <is>
-          <t>15,05%</t>
+          <t>13,22%</t>
         </is>
       </c>
       <c r="J60" s="2" t="inlineStr">
@@ -7127,32 +7127,32 @@
       </c>
       <c r="K60" s="2" t="inlineStr">
         <is>
-          <t>134049</t>
+          <t>132476</t>
         </is>
       </c>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>124870</t>
+          <t>124466</t>
         </is>
       </c>
       <c r="M60" s="2" t="inlineStr">
         <is>
-          <t>142669</t>
+          <t>142099</t>
         </is>
       </c>
       <c r="N60" s="2" t="inlineStr">
         <is>
-          <t>17,61%</t>
+          <t>16,51%</t>
         </is>
       </c>
       <c r="O60" s="2" t="inlineStr">
         <is>
-          <t>16,4%</t>
+          <t>15,51%</t>
         </is>
       </c>
       <c r="P60" s="2" t="inlineStr">
         <is>
-          <t>18,74%</t>
+          <t>17,71%</t>
         </is>
       </c>
       <c r="Q60" s="2" t="inlineStr">
@@ -7162,32 +7162,32 @@
       </c>
       <c r="R60" s="2" t="inlineStr">
         <is>
-          <t>230404</t>
+          <t>221699</t>
         </is>
       </c>
       <c r="S60" s="2" t="inlineStr">
         <is>
-          <t>218070</t>
+          <t>211044</t>
         </is>
       </c>
       <c r="T60" s="2" t="inlineStr">
         <is>
-          <t>243307</t>
+          <t>233971</t>
         </is>
       </c>
       <c r="U60" s="2" t="inlineStr">
         <is>
-          <t>15,77%</t>
+          <t>14,48%</t>
         </is>
       </c>
       <c r="V60" s="2" t="inlineStr">
         <is>
-          <t>14,92%</t>
+          <t>13,79%</t>
         </is>
       </c>
       <c r="W60" s="2" t="inlineStr">
         <is>
-          <t>16,65%</t>
+          <t>15,28%</t>
         </is>
       </c>
     </row>
@@ -7205,32 +7205,32 @@
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>108316</t>
+          <t>105395</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t>99649</t>
+          <t>97749</t>
         </is>
       </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>117132</t>
+          <t>113744</t>
         </is>
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>14,47%</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
         <is>
-          <t>14,24%</t>
+          <t>13,42%</t>
         </is>
       </c>
       <c r="I61" s="2" t="inlineStr">
         <is>
-          <t>16,73%</t>
+          <t>15,62%</t>
         </is>
       </c>
       <c r="J61" s="2" t="inlineStr">
@@ -7240,32 +7240,32 @@
       </c>
       <c r="K61" s="2" t="inlineStr">
         <is>
-          <t>115308</t>
+          <t>116410</t>
         </is>
       </c>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>106894</t>
+          <t>108402</t>
         </is>
       </c>
       <c r="M61" s="2" t="inlineStr">
         <is>
-          <t>124424</t>
+          <t>125441</t>
         </is>
       </c>
       <c r="N61" s="2" t="inlineStr">
         <is>
-          <t>15,15%</t>
+          <t>14,51%</t>
         </is>
       </c>
       <c r="O61" s="2" t="inlineStr">
         <is>
-          <t>14,04%</t>
+          <t>13,51%</t>
         </is>
       </c>
       <c r="P61" s="2" t="inlineStr">
         <is>
-          <t>16,35%</t>
+          <t>15,63%</t>
         </is>
       </c>
       <c r="Q61" s="2" t="inlineStr">
@@ -7275,32 +7275,32 @@
       </c>
       <c r="R61" s="2" t="inlineStr">
         <is>
-          <t>223623</t>
+          <t>221804</t>
         </is>
       </c>
       <c r="S61" s="2" t="inlineStr">
         <is>
-          <t>210919</t>
+          <t>210717</t>
         </is>
       </c>
       <c r="T61" s="2" t="inlineStr">
         <is>
-          <t>235665</t>
+          <t>234181</t>
         </is>
       </c>
       <c r="U61" s="2" t="inlineStr">
         <is>
+          <t>14,49%</t>
+        </is>
+      </c>
+      <c r="V61" s="2" t="inlineStr">
+        <is>
+          <t>13,77%</t>
+        </is>
+      </c>
+      <c r="W61" s="2" t="inlineStr">
+        <is>
           <t>15,3%</t>
-        </is>
-      </c>
-      <c r="V61" s="2" t="inlineStr">
-        <is>
-          <t>14,43%</t>
-        </is>
-      </c>
-      <c r="W61" s="2" t="inlineStr">
-        <is>
-          <t>16,13%</t>
         </is>
       </c>
     </row>
@@ -7318,32 +7318,32 @@
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>127051</t>
+          <t>130180</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
-          <t>117785</t>
+          <t>120426</t>
         </is>
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>135978</t>
+          <t>138961</t>
         </is>
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>18,15%</t>
+          <t>17,87%</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t>16,83%</t>
+          <t>16,53%</t>
         </is>
       </c>
       <c r="I62" s="2" t="inlineStr">
         <is>
-          <t>19,43%</t>
+          <t>19,08%</t>
         </is>
       </c>
       <c r="J62" s="2" t="inlineStr">
@@ -7353,32 +7353,32 @@
       </c>
       <c r="K62" s="2" t="inlineStr">
         <is>
-          <t>148023</t>
+          <t>152870</t>
         </is>
       </c>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>139236</t>
+          <t>143531</t>
         </is>
       </c>
       <c r="M62" s="2" t="inlineStr">
         <is>
-          <t>158684</t>
+          <t>162949</t>
         </is>
       </c>
       <c r="N62" s="2" t="inlineStr">
         <is>
-          <t>19,45%</t>
+          <t>19,05%</t>
         </is>
       </c>
       <c r="O62" s="2" t="inlineStr">
         <is>
-          <t>18,29%</t>
+          <t>17,89%</t>
         </is>
       </c>
       <c r="P62" s="2" t="inlineStr">
         <is>
-          <t>20,85%</t>
+          <t>20,31%</t>
         </is>
       </c>
       <c r="Q62" s="2" t="inlineStr">
@@ -7388,32 +7388,32 @@
       </c>
       <c r="R62" s="2" t="inlineStr">
         <is>
-          <t>275074</t>
+          <t>283051</t>
         </is>
       </c>
       <c r="S62" s="2" t="inlineStr">
         <is>
-          <t>262378</t>
+          <t>270240</t>
         </is>
       </c>
       <c r="T62" s="2" t="inlineStr">
         <is>
-          <t>290335</t>
+          <t>297313</t>
         </is>
       </c>
       <c r="U62" s="2" t="inlineStr">
         <is>
-          <t>18,82%</t>
+          <t>18,49%</t>
         </is>
       </c>
       <c r="V62" s="2" t="inlineStr">
         <is>
-          <t>17,96%</t>
+          <t>17,65%</t>
         </is>
       </c>
       <c r="W62" s="2" t="inlineStr">
         <is>
-          <t>19,87%</t>
+          <t>19,42%</t>
         </is>
       </c>
     </row>
@@ -7431,32 +7431,32 @@
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>139936</t>
+          <t>145717</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
-          <t>130519</t>
+          <t>135805</t>
         </is>
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>149028</t>
+          <t>155402</t>
         </is>
       </c>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>19,99%</t>
+          <t>20,01%</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr">
         <is>
-          <t>18,65%</t>
+          <t>18,64%</t>
         </is>
       </c>
       <c r="I63" s="2" t="inlineStr">
         <is>
-          <t>21,29%</t>
+          <t>21,34%</t>
         </is>
       </c>
       <c r="J63" s="2" t="inlineStr">
@@ -7466,32 +7466,32 @@
       </c>
       <c r="K63" s="2" t="inlineStr">
         <is>
-          <t>138685</t>
+          <t>153072</t>
         </is>
       </c>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>128884</t>
+          <t>143029</t>
         </is>
       </c>
       <c r="M63" s="2" t="inlineStr">
         <is>
-          <t>147864</t>
+          <t>163190</t>
         </is>
       </c>
       <c r="N63" s="2" t="inlineStr">
         <is>
-          <t>18,22%</t>
+          <t>19,08%</t>
         </is>
       </c>
       <c r="O63" s="2" t="inlineStr">
         <is>
-          <t>16,93%</t>
+          <t>17,83%</t>
         </is>
       </c>
       <c r="P63" s="2" t="inlineStr">
         <is>
-          <t>19,42%</t>
+          <t>20,34%</t>
         </is>
       </c>
       <c r="Q63" s="2" t="inlineStr">
@@ -7501,32 +7501,32 @@
       </c>
       <c r="R63" s="2" t="inlineStr">
         <is>
-          <t>278621</t>
+          <t>298789</t>
         </is>
       </c>
       <c r="S63" s="2" t="inlineStr">
         <is>
-          <t>266515</t>
+          <t>283691</t>
         </is>
       </c>
       <c r="T63" s="2" t="inlineStr">
         <is>
-          <t>292914</t>
+          <t>312203</t>
         </is>
       </c>
       <c r="U63" s="2" t="inlineStr">
         <is>
-          <t>19,07%</t>
+          <t>19,52%</t>
         </is>
       </c>
       <c r="V63" s="2" t="inlineStr">
         <is>
-          <t>18,24%</t>
+          <t>18,53%</t>
         </is>
       </c>
       <c r="W63" s="2" t="inlineStr">
         <is>
-          <t>20,05%</t>
+          <t>20,4%</t>
         </is>
       </c>
     </row>
@@ -7544,32 +7544,32 @@
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>95320</t>
+          <t>104353</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>87313</t>
+          <t>96144</t>
         </is>
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>104052</t>
+          <t>112599</t>
         </is>
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>13,62%</t>
+          <t>14,33%</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
         <is>
-          <t>12,47%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="I64" s="2" t="inlineStr">
         <is>
-          <t>14,86%</t>
+          <t>15,46%</t>
         </is>
       </c>
       <c r="J64" s="2" t="inlineStr">
@@ -7579,32 +7579,32 @@
       </c>
       <c r="K64" s="2" t="inlineStr">
         <is>
-          <t>98760</t>
+          <t>111458</t>
         </is>
       </c>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>90642</t>
+          <t>102529</t>
         </is>
       </c>
       <c r="M64" s="2" t="inlineStr">
         <is>
-          <t>107148</t>
+          <t>120874</t>
         </is>
       </c>
       <c r="N64" s="2" t="inlineStr">
         <is>
-          <t>12,97%</t>
+          <t>13,89%</t>
         </is>
       </c>
       <c r="O64" s="2" t="inlineStr">
         <is>
-          <t>11,91%</t>
+          <t>12,78%</t>
         </is>
       </c>
       <c r="P64" s="2" t="inlineStr">
         <is>
-          <t>14,08%</t>
+          <t>15,06%</t>
         </is>
       </c>
       <c r="Q64" s="2" t="inlineStr">
@@ -7614,32 +7614,32 @@
       </c>
       <c r="R64" s="2" t="inlineStr">
         <is>
-          <t>194080</t>
+          <t>215811</t>
         </is>
       </c>
       <c r="S64" s="2" t="inlineStr">
         <is>
-          <t>182818</t>
+          <t>202720</t>
         </is>
       </c>
       <c r="T64" s="2" t="inlineStr">
         <is>
-          <t>205579</t>
+          <t>228271</t>
         </is>
       </c>
       <c r="U64" s="2" t="inlineStr">
         <is>
-          <t>13,28%</t>
+          <t>14,1%</t>
         </is>
       </c>
       <c r="V64" s="2" t="inlineStr">
         <is>
-          <t>12,51%</t>
+          <t>13,24%</t>
         </is>
       </c>
       <c r="W64" s="2" t="inlineStr">
         <is>
-          <t>14,07%</t>
+          <t>14,91%</t>
         </is>
       </c>
     </row>
@@ -7657,32 +7657,32 @@
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>69529</t>
+          <t>75767</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>62996</t>
+          <t>68295</t>
         </is>
       </c>
       <c r="F65" s="2" t="inlineStr">
         <is>
-          <t>76518</t>
+          <t>84092</t>
         </is>
       </c>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>9,93%</t>
+          <t>10,4%</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr">
         <is>
-          <t>9,0%</t>
+          <t>9,38%</t>
         </is>
       </c>
       <c r="I65" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>11,54%</t>
         </is>
       </c>
       <c r="J65" s="2" t="inlineStr">
@@ -7692,32 +7692,32 @@
       </c>
       <c r="K65" s="2" t="inlineStr">
         <is>
-          <t>63694</t>
+          <t>69403</t>
         </is>
       </c>
       <c r="L65" s="2" t="inlineStr">
         <is>
-          <t>57288</t>
+          <t>62506</t>
         </is>
       </c>
       <c r="M65" s="2" t="inlineStr">
         <is>
-          <t>70570</t>
+          <t>77192</t>
         </is>
       </c>
       <c r="N65" s="2" t="inlineStr">
         <is>
-          <t>8,37%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="O65" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="P65" s="2" t="inlineStr">
         <is>
-          <t>9,27%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="Q65" s="2" t="inlineStr">
@@ -7727,32 +7727,32 @@
       </c>
       <c r="R65" s="2" t="inlineStr">
         <is>
-          <t>133223</t>
+          <t>145171</t>
         </is>
       </c>
       <c r="S65" s="2" t="inlineStr">
         <is>
-          <t>124470</t>
+          <t>134567</t>
         </is>
       </c>
       <c r="T65" s="2" t="inlineStr">
         <is>
-          <t>143896</t>
+          <t>156174</t>
         </is>
       </c>
       <c r="U65" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="V65" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>8,79%</t>
         </is>
       </c>
       <c r="W65" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>10,2%</t>
         </is>
       </c>
     </row>
@@ -7770,32 +7770,32 @@
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>63488</t>
+          <t>77753</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>57260</t>
+          <t>70153</t>
         </is>
       </c>
       <c r="F66" s="2" t="inlineStr">
         <is>
-          <t>70404</t>
+          <t>86871</t>
         </is>
       </c>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>10,67%</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="I66" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>11,93%</t>
         </is>
       </c>
       <c r="J66" s="2" t="inlineStr">
@@ -7805,32 +7805,32 @@
       </c>
       <c r="K66" s="2" t="inlineStr">
         <is>
-          <t>62713</t>
+          <t>66683</t>
         </is>
       </c>
       <c r="L66" s="2" t="inlineStr">
         <is>
-          <t>55893</t>
+          <t>59488</t>
         </is>
       </c>
       <c r="M66" s="2" t="inlineStr">
         <is>
-          <t>69516</t>
+          <t>74306</t>
         </is>
       </c>
       <c r="N66" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>8,31%</t>
         </is>
       </c>
       <c r="O66" s="2" t="inlineStr">
         <is>
-          <t>7,34%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="P66" s="2" t="inlineStr">
         <is>
-          <t>9,13%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="Q66" s="2" t="inlineStr">
@@ -7840,32 +7840,32 @@
       </c>
       <c r="R66" s="2" t="inlineStr">
         <is>
-          <t>126201</t>
+          <t>144436</t>
         </is>
       </c>
       <c r="S66" s="2" t="inlineStr">
         <is>
-          <t>116965</t>
+          <t>134097</t>
         </is>
       </c>
       <c r="T66" s="2" t="inlineStr">
         <is>
-          <t>135335</t>
+          <t>155539</t>
         </is>
       </c>
       <c r="U66" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>9,44%</t>
         </is>
       </c>
       <c r="V66" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>8,76%</t>
         </is>
       </c>
       <c r="W66" s="2" t="inlineStr">
         <is>
-          <t>9,26%</t>
+          <t>10,16%</t>
         </is>
       </c>
     </row>
@@ -7883,17 +7883,17 @@
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>699994</t>
+          <t>728388</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>699994</t>
+          <t>728388</t>
         </is>
       </c>
       <c r="F67" s="2" t="inlineStr">
         <is>
-          <t>699994</t>
+          <t>728388</t>
         </is>
       </c>
       <c r="G67" s="2" t="inlineStr">
@@ -7918,17 +7918,17 @@
       </c>
       <c r="K67" s="2" t="inlineStr">
         <is>
-          <t>761232</t>
+          <t>802373</t>
         </is>
       </c>
       <c r="L67" s="2" t="inlineStr">
         <is>
-          <t>761232</t>
+          <t>802373</t>
         </is>
       </c>
       <c r="M67" s="2" t="inlineStr">
         <is>
-          <t>761232</t>
+          <t>802373</t>
         </is>
       </c>
       <c r="N67" s="2" t="inlineStr">
@@ -7953,17 +7953,17 @@
       </c>
       <c r="R67" s="2" t="inlineStr">
         <is>
-          <t>1461226</t>
+          <t>1530761</t>
         </is>
       </c>
       <c r="S67" s="2" t="inlineStr">
         <is>
-          <t>1461226</t>
+          <t>1530761</t>
         </is>
       </c>
       <c r="T67" s="2" t="inlineStr">
         <is>
-          <t>1461226</t>
+          <t>1530761</t>
         </is>
       </c>
       <c r="U67" s="2" t="inlineStr">
@@ -14604,12 +14604,12 @@
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t>105397</t>
+          <t>104878</t>
         </is>
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>179632</t>
+          <t>180556</t>
         </is>
       </c>
       <c r="G60" s="2" t="inlineStr">
@@ -14619,12 +14619,12 @@
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="I60" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>8,58%</t>
         </is>
       </c>
       <c r="J60" s="2" t="inlineStr">
@@ -14639,12 +14639,12 @@
       </c>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>171514</t>
+          <t>173646</t>
         </is>
       </c>
       <c r="M60" s="2" t="inlineStr">
         <is>
-          <t>270726</t>
+          <t>272049</t>
         </is>
       </c>
       <c r="N60" s="2" t="inlineStr">
@@ -14654,12 +14654,12 @@
       </c>
       <c r="O60" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>7,77%</t>
         </is>
       </c>
       <c r="P60" s="2" t="inlineStr">
         <is>
-          <t>12,11%</t>
+          <t>12,17%</t>
         </is>
       </c>
       <c r="Q60" s="2" t="inlineStr">
@@ -14674,12 +14674,12 @@
       </c>
       <c r="S60" s="2" t="inlineStr">
         <is>
-          <t>305552</t>
+          <t>311594</t>
         </is>
       </c>
       <c r="T60" s="2" t="inlineStr">
         <is>
-          <t>438560</t>
+          <t>438021</t>
         </is>
       </c>
       <c r="U60" s="2" t="inlineStr">
@@ -14689,12 +14689,12 @@
       </c>
       <c r="V60" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>7,18%</t>
         </is>
       </c>
       <c r="W60" s="2" t="inlineStr">
         <is>
-          <t>10,11%</t>
+          <t>10,1%</t>
         </is>
       </c>
     </row>
@@ -14717,12 +14717,12 @@
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t>139860</t>
+          <t>136930</t>
         </is>
       </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>244413</t>
+          <t>244536</t>
         </is>
       </c>
       <c r="G61" s="2" t="inlineStr">
@@ -14732,12 +14732,12 @@
       </c>
       <c r="H61" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="I61" s="2" t="inlineStr">
         <is>
-          <t>11,62%</t>
+          <t>11,63%</t>
         </is>
       </c>
       <c r="J61" s="2" t="inlineStr">
@@ -14752,12 +14752,12 @@
       </c>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>262660</t>
+          <t>262239</t>
         </is>
       </c>
       <c r="M61" s="2" t="inlineStr">
         <is>
-          <t>930254</t>
+          <t>947023</t>
         </is>
       </c>
       <c r="N61" s="2" t="inlineStr">
@@ -14767,12 +14767,12 @@
       </c>
       <c r="O61" s="2" t="inlineStr">
         <is>
-          <t>11,75%</t>
+          <t>11,73%</t>
         </is>
       </c>
       <c r="P61" s="2" t="inlineStr">
         <is>
-          <t>41,61%</t>
+          <t>42,36%</t>
         </is>
       </c>
       <c r="Q61" s="2" t="inlineStr">
@@ -14787,12 +14787,12 @@
       </c>
       <c r="S61" s="2" t="inlineStr">
         <is>
-          <t>456345</t>
+          <t>451655</t>
         </is>
       </c>
       <c r="T61" s="2" t="inlineStr">
         <is>
-          <t>1219933</t>
+          <t>1204683</t>
         </is>
       </c>
       <c r="U61" s="2" t="inlineStr">
@@ -14802,12 +14802,12 @@
       </c>
       <c r="V61" s="2" t="inlineStr">
         <is>
-          <t>10,52%</t>
+          <t>10,41%</t>
         </is>
       </c>
       <c r="W61" s="2" t="inlineStr">
         <is>
-          <t>28,12%</t>
+          <t>27,76%</t>
         </is>
       </c>
     </row>
@@ -14830,12 +14830,12 @@
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
-          <t>236854</t>
+          <t>220208</t>
         </is>
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>398591</t>
+          <t>395328</t>
         </is>
       </c>
       <c r="G62" s="2" t="inlineStr">
@@ -14845,12 +14845,12 @@
       </c>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t>11,26%</t>
+          <t>10,47%</t>
         </is>
       </c>
       <c r="I62" s="2" t="inlineStr">
         <is>
-          <t>18,95%</t>
+          <t>18,79%</t>
         </is>
       </c>
       <c r="J62" s="2" t="inlineStr">
@@ -14865,12 +14865,12 @@
       </c>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>235944</t>
+          <t>237015</t>
         </is>
       </c>
       <c r="M62" s="2" t="inlineStr">
         <is>
-          <t>372876</t>
+          <t>369290</t>
         </is>
       </c>
       <c r="N62" s="2" t="inlineStr">
@@ -14880,12 +14880,12 @@
       </c>
       <c r="O62" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>10,6%</t>
         </is>
       </c>
       <c r="P62" s="2" t="inlineStr">
         <is>
-          <t>16,68%</t>
+          <t>16,52%</t>
         </is>
       </c>
       <c r="Q62" s="2" t="inlineStr">
@@ -14900,12 +14900,12 @@
       </c>
       <c r="S62" s="2" t="inlineStr">
         <is>
-          <t>521127</t>
+          <t>532627</t>
         </is>
       </c>
       <c r="T62" s="2" t="inlineStr">
         <is>
-          <t>738577</t>
+          <t>745234</t>
         </is>
       </c>
       <c r="U62" s="2" t="inlineStr">
@@ -14915,12 +14915,12 @@
       </c>
       <c r="V62" s="2" t="inlineStr">
         <is>
-          <t>12,01%</t>
+          <t>12,28%</t>
         </is>
       </c>
       <c r="W62" s="2" t="inlineStr">
         <is>
-          <t>17,02%</t>
+          <t>17,18%</t>
         </is>
       </c>
     </row>
@@ -14943,12 +14943,12 @@
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
-          <t>422772</t>
+          <t>421798</t>
         </is>
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>1090386</t>
+          <t>1100598</t>
         </is>
       </c>
       <c r="G63" s="2" t="inlineStr">
@@ -14958,12 +14958,12 @@
       </c>
       <c r="H63" s="2" t="inlineStr">
         <is>
-          <t>20,1%</t>
+          <t>20,05%</t>
         </is>
       </c>
       <c r="I63" s="2" t="inlineStr">
         <is>
-          <t>51,84%</t>
+          <t>52,32%</t>
         </is>
       </c>
       <c r="J63" s="2" t="inlineStr">
@@ -14978,12 +14978,12 @@
       </c>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>296765</t>
+          <t>293410</t>
         </is>
       </c>
       <c r="M63" s="2" t="inlineStr">
         <is>
-          <t>462258</t>
+          <t>468100</t>
         </is>
       </c>
       <c r="N63" s="2" t="inlineStr">
@@ -14993,12 +14993,12 @@
       </c>
       <c r="O63" s="2" t="inlineStr">
         <is>
-          <t>13,28%</t>
+          <t>13,13%</t>
         </is>
       </c>
       <c r="P63" s="2" t="inlineStr">
         <is>
-          <t>20,68%</t>
+          <t>20,94%</t>
         </is>
       </c>
       <c r="Q63" s="2" t="inlineStr">
@@ -15013,12 +15013,12 @@
       </c>
       <c r="S63" s="2" t="inlineStr">
         <is>
-          <t>802845</t>
+          <t>800885</t>
         </is>
       </c>
       <c r="T63" s="2" t="inlineStr">
         <is>
-          <t>1635638</t>
+          <t>1696201</t>
         </is>
       </c>
       <c r="U63" s="2" t="inlineStr">
@@ -15028,12 +15028,12 @@
       </c>
       <c r="V63" s="2" t="inlineStr">
         <is>
-          <t>18,5%</t>
+          <t>18,46%</t>
         </is>
       </c>
       <c r="W63" s="2" t="inlineStr">
         <is>
-          <t>37,7%</t>
+          <t>39,09%</t>
         </is>
       </c>
     </row>
@@ -15056,12 +15056,12 @@
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>220940</t>
+          <t>207522</t>
         </is>
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>365566</t>
+          <t>366637</t>
         </is>
       </c>
       <c r="G64" s="2" t="inlineStr">
@@ -15071,12 +15071,12 @@
       </c>
       <c r="H64" s="2" t="inlineStr">
         <is>
-          <t>10,5%</t>
+          <t>9,87%</t>
         </is>
       </c>
       <c r="I64" s="2" t="inlineStr">
         <is>
-          <t>17,38%</t>
+          <t>17,43%</t>
         </is>
       </c>
       <c r="J64" s="2" t="inlineStr">
@@ -15091,12 +15091,12 @@
       </c>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>236010</t>
+          <t>237280</t>
         </is>
       </c>
       <c r="M64" s="2" t="inlineStr">
         <is>
-          <t>371762</t>
+          <t>376347</t>
         </is>
       </c>
       <c r="N64" s="2" t="inlineStr">
@@ -15106,12 +15106,12 @@
       </c>
       <c r="O64" s="2" t="inlineStr">
         <is>
-          <t>10,56%</t>
+          <t>10,61%</t>
         </is>
       </c>
       <c r="P64" s="2" t="inlineStr">
         <is>
-          <t>16,63%</t>
+          <t>16,84%</t>
         </is>
       </c>
       <c r="Q64" s="2" t="inlineStr">
@@ -15126,12 +15126,12 @@
       </c>
       <c r="S64" s="2" t="inlineStr">
         <is>
-          <t>500455</t>
+          <t>509629</t>
         </is>
       </c>
       <c r="T64" s="2" t="inlineStr">
         <is>
-          <t>716520</t>
+          <t>714102</t>
         </is>
       </c>
       <c r="U64" s="2" t="inlineStr">
@@ -15141,12 +15141,12 @@
       </c>
       <c r="V64" s="2" t="inlineStr">
         <is>
-          <t>11,53%</t>
+          <t>11,75%</t>
         </is>
       </c>
       <c r="W64" s="2" t="inlineStr">
         <is>
-          <t>16,51%</t>
+          <t>16,46%</t>
         </is>
       </c>
     </row>
@@ -15169,12 +15169,12 @@
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>155737</t>
+          <t>154492</t>
         </is>
       </c>
       <c r="F65" s="2" t="inlineStr">
         <is>
-          <t>275284</t>
+          <t>279523</t>
         </is>
       </c>
       <c r="G65" s="2" t="inlineStr">
@@ -15184,12 +15184,12 @@
       </c>
       <c r="H65" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="I65" s="2" t="inlineStr">
         <is>
-          <t>13,09%</t>
+          <t>13,29%</t>
         </is>
       </c>
       <c r="J65" s="2" t="inlineStr">
@@ -15204,12 +15204,12 @@
       </c>
       <c r="L65" s="2" t="inlineStr">
         <is>
-          <t>231317</t>
+          <t>230580</t>
         </is>
       </c>
       <c r="M65" s="2" t="inlineStr">
         <is>
-          <t>513513</t>
+          <t>504456</t>
         </is>
       </c>
       <c r="N65" s="2" t="inlineStr">
@@ -15219,12 +15219,12 @@
       </c>
       <c r="O65" s="2" t="inlineStr">
         <is>
-          <t>10,35%</t>
+          <t>10,31%</t>
         </is>
       </c>
       <c r="P65" s="2" t="inlineStr">
         <is>
-          <t>22,97%</t>
+          <t>22,57%</t>
         </is>
       </c>
       <c r="Q65" s="2" t="inlineStr">
@@ -15239,12 +15239,12 @@
       </c>
       <c r="S65" s="2" t="inlineStr">
         <is>
-          <t>437774</t>
+          <t>437984</t>
         </is>
       </c>
       <c r="T65" s="2" t="inlineStr">
         <is>
-          <t>733379</t>
+          <t>750498</t>
         </is>
       </c>
       <c r="U65" s="2" t="inlineStr">
@@ -15259,7 +15259,7 @@
       </c>
       <c r="W65" s="2" t="inlineStr">
         <is>
-          <t>16,9%</t>
+          <t>17,3%</t>
         </is>
       </c>
     </row>
@@ -15282,12 +15282,12 @@
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>155278</t>
+          <t>163537</t>
         </is>
       </c>
       <c r="F66" s="2" t="inlineStr">
         <is>
-          <t>297651</t>
+          <t>295642</t>
         </is>
       </c>
       <c r="G66" s="2" t="inlineStr">
@@ -15297,12 +15297,12 @@
       </c>
       <c r="H66" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>7,77%</t>
         </is>
       </c>
       <c r="I66" s="2" t="inlineStr">
         <is>
-          <t>14,15%</t>
+          <t>14,05%</t>
         </is>
       </c>
       <c r="J66" s="2" t="inlineStr">
@@ -15317,12 +15317,12 @@
       </c>
       <c r="L66" s="2" t="inlineStr">
         <is>
-          <t>134476</t>
+          <t>131854</t>
         </is>
       </c>
       <c r="M66" s="2" t="inlineStr">
         <is>
-          <t>228634</t>
+          <t>230694</t>
         </is>
       </c>
       <c r="N66" s="2" t="inlineStr">
@@ -15332,12 +15332,12 @@
       </c>
       <c r="O66" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="P66" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>10,32%</t>
         </is>
       </c>
       <c r="Q66" s="2" t="inlineStr">
@@ -15352,12 +15352,12 @@
       </c>
       <c r="S66" s="2" t="inlineStr">
         <is>
-          <t>326521</t>
+          <t>332971</t>
         </is>
       </c>
       <c r="T66" s="2" t="inlineStr">
         <is>
-          <t>499609</t>
+          <t>502119</t>
         </is>
       </c>
       <c r="U66" s="2" t="inlineStr">
@@ -15367,12 +15367,12 @@
       </c>
       <c r="V66" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="W66" s="2" t="inlineStr">
         <is>
-          <t>11,51%</t>
+          <t>11,57%</t>
         </is>
       </c>
     </row>
@@ -29618,12 +29618,12 @@
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t>58943</t>
+          <t>58676</t>
         </is>
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>81822</t>
+          <t>80909</t>
         </is>
       </c>
       <c r="G60" s="2" t="inlineStr">
@@ -29633,12 +29633,12 @@
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>8,61%</t>
         </is>
       </c>
       <c r="I60" s="2" t="inlineStr">
         <is>
-          <t>12,01%</t>
+          <t>11,87%</t>
         </is>
       </c>
       <c r="J60" s="2" t="inlineStr">
@@ -29653,12 +29653,12 @@
       </c>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>99615</t>
+          <t>100655</t>
         </is>
       </c>
       <c r="M60" s="2" t="inlineStr">
         <is>
-          <t>129649</t>
+          <t>131752</t>
         </is>
       </c>
       <c r="N60" s="2" t="inlineStr">
@@ -29668,12 +29668,12 @@
       </c>
       <c r="O60" s="2" t="inlineStr">
         <is>
-          <t>13,12%</t>
+          <t>13,26%</t>
         </is>
       </c>
       <c r="P60" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>17,36%</t>
         </is>
       </c>
       <c r="Q60" s="2" t="inlineStr">
@@ -29688,12 +29688,12 @@
       </c>
       <c r="S60" s="2" t="inlineStr">
         <is>
-          <t>165753</t>
+          <t>163590</t>
         </is>
       </c>
       <c r="T60" s="2" t="inlineStr">
         <is>
-          <t>204281</t>
+          <t>201869</t>
         </is>
       </c>
       <c r="U60" s="2" t="inlineStr">
@@ -29703,12 +29703,12 @@
       </c>
       <c r="V60" s="2" t="inlineStr">
         <is>
-          <t>11,51%</t>
+          <t>11,36%</t>
         </is>
       </c>
       <c r="W60" s="2" t="inlineStr">
         <is>
-          <t>14,18%</t>
+          <t>14,01%</t>
         </is>
       </c>
     </row>
@@ -29731,12 +29731,12 @@
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t>58751</t>
+          <t>58646</t>
         </is>
       </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>81791</t>
+          <t>83481</t>
         </is>
       </c>
       <c r="G61" s="2" t="inlineStr">
@@ -29746,12 +29746,12 @@
       </c>
       <c r="H61" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>8,61%</t>
         </is>
       </c>
       <c r="I61" s="2" t="inlineStr">
         <is>
-          <t>12,0%</t>
+          <t>12,25%</t>
         </is>
       </c>
       <c r="J61" s="2" t="inlineStr">
@@ -29766,12 +29766,12 @@
       </c>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>76405</t>
+          <t>76875</t>
         </is>
       </c>
       <c r="M61" s="2" t="inlineStr">
         <is>
-          <t>102903</t>
+          <t>104237</t>
         </is>
       </c>
       <c r="N61" s="2" t="inlineStr">
@@ -29781,12 +29781,12 @@
       </c>
       <c r="O61" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>10,13%</t>
         </is>
       </c>
       <c r="P61" s="2" t="inlineStr">
         <is>
-          <t>13,56%</t>
+          <t>13,73%</t>
         </is>
       </c>
       <c r="Q61" s="2" t="inlineStr">
@@ -29801,12 +29801,12 @@
       </c>
       <c r="S61" s="2" t="inlineStr">
         <is>
-          <t>140745</t>
+          <t>140776</t>
         </is>
       </c>
       <c r="T61" s="2" t="inlineStr">
         <is>
-          <t>177086</t>
+          <t>176139</t>
         </is>
       </c>
       <c r="U61" s="2" t="inlineStr">
@@ -29821,7 +29821,7 @@
       </c>
       <c r="W61" s="2" t="inlineStr">
         <is>
-          <t>12,29%</t>
+          <t>12,23%</t>
         </is>
       </c>
     </row>
@@ -29844,12 +29844,12 @@
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
-          <t>83406</t>
+          <t>84812</t>
         </is>
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>112897</t>
+          <t>114516</t>
         </is>
       </c>
       <c r="G62" s="2" t="inlineStr">
@@ -29859,12 +29859,12 @@
       </c>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t>12,24%</t>
+          <t>12,45%</t>
         </is>
       </c>
       <c r="I62" s="2" t="inlineStr">
         <is>
-          <t>16,57%</t>
+          <t>16,8%</t>
         </is>
       </c>
       <c r="J62" s="2" t="inlineStr">
@@ -29879,12 +29879,12 @@
       </c>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>101433</t>
+          <t>101940</t>
         </is>
       </c>
       <c r="M62" s="2" t="inlineStr">
         <is>
-          <t>131198</t>
+          <t>131676</t>
         </is>
       </c>
       <c r="N62" s="2" t="inlineStr">
@@ -29894,12 +29894,12 @@
       </c>
       <c r="O62" s="2" t="inlineStr">
         <is>
-          <t>13,36%</t>
+          <t>13,43%</t>
         </is>
       </c>
       <c r="P62" s="2" t="inlineStr">
         <is>
-          <t>17,28%</t>
+          <t>17,35%</t>
         </is>
       </c>
       <c r="Q62" s="2" t="inlineStr">
@@ -29914,12 +29914,12 @@
       </c>
       <c r="S62" s="2" t="inlineStr">
         <is>
-          <t>193261</t>
+          <t>194449</t>
         </is>
       </c>
       <c r="T62" s="2" t="inlineStr">
         <is>
-          <t>233854</t>
+          <t>236155</t>
         </is>
       </c>
       <c r="U62" s="2" t="inlineStr">
@@ -29929,12 +29929,12 @@
       </c>
       <c r="V62" s="2" t="inlineStr">
         <is>
-          <t>13,42%</t>
+          <t>13,5%</t>
         </is>
       </c>
       <c r="W62" s="2" t="inlineStr">
         <is>
-          <t>16,23%</t>
+          <t>16,39%</t>
         </is>
       </c>
     </row>
@@ -29957,12 +29957,12 @@
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
-          <t>102937</t>
+          <t>103463</t>
         </is>
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>133634</t>
+          <t>132514</t>
         </is>
       </c>
       <c r="G63" s="2" t="inlineStr">
@@ -29972,12 +29972,12 @@
       </c>
       <c r="H63" s="2" t="inlineStr">
         <is>
-          <t>15,1%</t>
+          <t>15,18%</t>
         </is>
       </c>
       <c r="I63" s="2" t="inlineStr">
         <is>
-          <t>19,61%</t>
+          <t>19,44%</t>
         </is>
       </c>
       <c r="J63" s="2" t="inlineStr">
@@ -29992,12 +29992,12 @@
       </c>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>105955</t>
+          <t>105937</t>
         </is>
       </c>
       <c r="M63" s="2" t="inlineStr">
         <is>
-          <t>134296</t>
+          <t>133755</t>
         </is>
       </c>
       <c r="N63" s="2" t="inlineStr">
@@ -30012,7 +30012,7 @@
       </c>
       <c r="P63" s="2" t="inlineStr">
         <is>
-          <t>17,69%</t>
+          <t>17,62%</t>
         </is>
       </c>
       <c r="Q63" s="2" t="inlineStr">
@@ -30027,12 +30027,12 @@
       </c>
       <c r="S63" s="2" t="inlineStr">
         <is>
-          <t>217767</t>
+          <t>217035</t>
         </is>
       </c>
       <c r="T63" s="2" t="inlineStr">
         <is>
-          <t>259464</t>
+          <t>258583</t>
         </is>
       </c>
       <c r="U63" s="2" t="inlineStr">
@@ -30042,12 +30042,12 @@
       </c>
       <c r="V63" s="2" t="inlineStr">
         <is>
-          <t>15,12%</t>
+          <t>15,07%</t>
         </is>
       </c>
       <c r="W63" s="2" t="inlineStr">
         <is>
-          <t>18,01%</t>
+          <t>17,95%</t>
         </is>
       </c>
     </row>
@@ -30070,12 +30070,12 @@
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>123968</t>
+          <t>125153</t>
         </is>
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>156797</t>
+          <t>158599</t>
         </is>
       </c>
       <c r="G64" s="2" t="inlineStr">
@@ -30085,12 +30085,12 @@
       </c>
       <c r="H64" s="2" t="inlineStr">
         <is>
-          <t>18,19%</t>
+          <t>18,36%</t>
         </is>
       </c>
       <c r="I64" s="2" t="inlineStr">
         <is>
-          <t>23,01%</t>
+          <t>23,27%</t>
         </is>
       </c>
       <c r="J64" s="2" t="inlineStr">
@@ -30105,12 +30105,12 @@
       </c>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>116738</t>
+          <t>115789</t>
         </is>
       </c>
       <c r="M64" s="2" t="inlineStr">
         <is>
-          <t>148484</t>
+          <t>147487</t>
         </is>
       </c>
       <c r="N64" s="2" t="inlineStr">
@@ -30120,12 +30120,12 @@
       </c>
       <c r="O64" s="2" t="inlineStr">
         <is>
-          <t>15,38%</t>
+          <t>15,25%</t>
         </is>
       </c>
       <c r="P64" s="2" t="inlineStr">
         <is>
-          <t>19,56%</t>
+          <t>19,43%</t>
         </is>
       </c>
       <c r="Q64" s="2" t="inlineStr">
@@ -30140,12 +30140,12 @@
       </c>
       <c r="S64" s="2" t="inlineStr">
         <is>
-          <t>248820</t>
+          <t>249058</t>
         </is>
       </c>
       <c r="T64" s="2" t="inlineStr">
         <is>
-          <t>293689</t>
+          <t>293839</t>
         </is>
       </c>
       <c r="U64" s="2" t="inlineStr">
@@ -30155,12 +30155,12 @@
       </c>
       <c r="V64" s="2" t="inlineStr">
         <is>
-          <t>17,27%</t>
+          <t>17,29%</t>
         </is>
       </c>
       <c r="W64" s="2" t="inlineStr">
         <is>
-          <t>20,39%</t>
+          <t>20,4%</t>
         </is>
       </c>
     </row>
@@ -30183,12 +30183,12 @@
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>108935</t>
+          <t>109356</t>
         </is>
       </c>
       <c r="F65" s="2" t="inlineStr">
         <is>
-          <t>139248</t>
+          <t>139242</t>
         </is>
       </c>
       <c r="G65" s="2" t="inlineStr">
@@ -30198,7 +30198,7 @@
       </c>
       <c r="H65" s="2" t="inlineStr">
         <is>
-          <t>15,98%</t>
+          <t>16,05%</t>
         </is>
       </c>
       <c r="I65" s="2" t="inlineStr">
@@ -30218,12 +30218,12 @@
       </c>
       <c r="L65" s="2" t="inlineStr">
         <is>
-          <t>113462</t>
+          <t>111772</t>
         </is>
       </c>
       <c r="M65" s="2" t="inlineStr">
         <is>
-          <t>144225</t>
+          <t>144137</t>
         </is>
       </c>
       <c r="N65" s="2" t="inlineStr">
@@ -30233,12 +30233,12 @@
       </c>
       <c r="O65" s="2" t="inlineStr">
         <is>
-          <t>14,95%</t>
+          <t>14,72%</t>
         </is>
       </c>
       <c r="P65" s="2" t="inlineStr">
         <is>
-          <t>19,0%</t>
+          <t>18,99%</t>
         </is>
       </c>
       <c r="Q65" s="2" t="inlineStr">
@@ -30253,12 +30253,12 @@
       </c>
       <c r="S65" s="2" t="inlineStr">
         <is>
-          <t>231398</t>
+          <t>230100</t>
         </is>
       </c>
       <c r="T65" s="2" t="inlineStr">
         <is>
-          <t>274412</t>
+          <t>275596</t>
         </is>
       </c>
       <c r="U65" s="2" t="inlineStr">
@@ -30268,12 +30268,12 @@
       </c>
       <c r="V65" s="2" t="inlineStr">
         <is>
-          <t>16,06%</t>
+          <t>15,97%</t>
         </is>
       </c>
       <c r="W65" s="2" t="inlineStr">
         <is>
-          <t>19,05%</t>
+          <t>19,13%</t>
         </is>
       </c>
     </row>
@@ -30296,12 +30296,12 @@
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>53768</t>
+          <t>54876</t>
         </is>
       </c>
       <c r="F66" s="2" t="inlineStr">
         <is>
-          <t>76316</t>
+          <t>76394</t>
         </is>
       </c>
       <c r="G66" s="2" t="inlineStr">
@@ -30311,12 +30311,12 @@
       </c>
       <c r="H66" s="2" t="inlineStr">
         <is>
-          <t>7,89%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="I66" s="2" t="inlineStr">
         <is>
-          <t>11,2%</t>
+          <t>11,21%</t>
         </is>
       </c>
       <c r="J66" s="2" t="inlineStr">
@@ -30331,12 +30331,12 @@
       </c>
       <c r="L66" s="2" t="inlineStr">
         <is>
-          <t>52398</t>
+          <t>52291</t>
         </is>
       </c>
       <c r="M66" s="2" t="inlineStr">
         <is>
-          <t>72456</t>
+          <t>73003</t>
         </is>
       </c>
       <c r="N66" s="2" t="inlineStr">
@@ -30346,12 +30346,12 @@
       </c>
       <c r="O66" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="P66" s="2" t="inlineStr">
         <is>
-          <t>9,54%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="Q66" s="2" t="inlineStr">
@@ -30366,12 +30366,12 @@
       </c>
       <c r="S66" s="2" t="inlineStr">
         <is>
-          <t>112383</t>
+          <t>112548</t>
         </is>
       </c>
       <c r="T66" s="2" t="inlineStr">
         <is>
-          <t>142286</t>
+          <t>141430</t>
         </is>
       </c>
       <c r="U66" s="2" t="inlineStr">
@@ -30381,12 +30381,12 @@
       </c>
       <c r="V66" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="W66" s="2" t="inlineStr">
         <is>
-          <t>9,88%</t>
+          <t>9,82%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/EDAD_G2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/EDAD_G2-Edad-trans_orig.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Grupo de edad en País Vasco (tasa de respuesta: 100,0%)</t>
+          <t>Grupo de edad en Andalucia (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1409,12 +1409,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>77753</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1444,12 +1444,12 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>118</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>66683</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1479,12 +1479,12 @@
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>212</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>144436</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
@@ -1522,22 +1522,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>77753</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>77753</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>77753</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1557,22 +1557,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>118</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>66683</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>66683</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>66683</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1592,22 +1592,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>212</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>144436</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>144436</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>144436</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -2204,12 +2204,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>75767</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -2239,12 +2239,12 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>249</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>69403</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
@@ -2274,12 +2274,12 @@
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>402</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>145171</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
@@ -2430,22 +2430,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>75767</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>75767</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>75767</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2465,22 +2465,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>249</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>69403</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>69403</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>69403</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2500,22 +2500,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>402</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>145171</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>145171</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>145171</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2999,12 +2999,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>313</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>104353</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -3034,12 +3034,12 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>493</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>111458</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
@@ -3069,12 +3069,12 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>1157</t>
+          <t>806</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>215811</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
@@ -3338,22 +3338,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>313</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>104353</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>104353</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>104353</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3373,22 +3373,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>493</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>111458</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>111458</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>111458</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3408,22 +3408,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>1157</t>
+          <t>806</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>215811</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>215811</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>215811</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3794,12 +3794,12 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>807</t>
+          <t>390</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>145717</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
@@ -3829,12 +3829,12 @@
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>660</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>153072</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
@@ -3864,12 +3864,12 @@
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>1623</t>
+          <t>1050</t>
         </is>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>298789</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
@@ -4246,22 +4246,22 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>807</t>
+          <t>390</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>145717</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>145717</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>145717</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -4281,22 +4281,22 @@
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>660</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>153072</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>153072</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>153072</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -4316,22 +4316,22 @@
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>1623</t>
+          <t>1050</t>
         </is>
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>298789</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>298789</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>298789</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
@@ -4589,12 +4589,12 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>735</t>
+          <t>399</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>130180</t>
+          <t>369030</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
@@ -4624,12 +4624,12 @@
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>863</t>
+          <t>568</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>152870</t>
+          <t>361773</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
@@ -4659,12 +4659,12 @@
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>1598</t>
+          <t>967</t>
         </is>
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>283051</t>
+          <t>730803</t>
         </is>
       </c>
       <c r="S38" s="2" t="inlineStr">
@@ -5154,22 +5154,22 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>735</t>
+          <t>399</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>130180</t>
+          <t>369030</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>130180</t>
+          <t>369030</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>130180</t>
+          <t>369030</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
@@ -5189,22 +5189,22 @@
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>863</t>
+          <t>568</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>152870</t>
+          <t>361773</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>152870</t>
+          <t>361773</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>152870</t>
+          <t>361773</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
@@ -5224,22 +5224,22 @@
       </c>
       <c r="Q43" s="2" t="inlineStr">
         <is>
-          <t>1598</t>
+          <t>967</t>
         </is>
       </c>
       <c r="R43" s="2" t="inlineStr">
         <is>
-          <t>283051</t>
+          <t>730803</t>
         </is>
       </c>
       <c r="S43" s="2" t="inlineStr">
         <is>
-          <t>283051</t>
+          <t>730803</t>
         </is>
       </c>
       <c r="T43" s="2" t="inlineStr">
         <is>
-          <t>283051</t>
+          <t>730803</t>
         </is>
       </c>
       <c r="U43" s="2" t="inlineStr">
@@ -5384,12 +5384,12 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>317</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>105395</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
@@ -5419,12 +5419,12 @@
       </c>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>482</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>116410</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="L45" s="2" t="inlineStr">
@@ -5454,12 +5454,12 @@
       </c>
       <c r="Q45" s="2" t="inlineStr">
         <is>
-          <t>1356</t>
+          <t>799</t>
         </is>
       </c>
       <c r="R45" s="2" t="inlineStr">
         <is>
-          <t>221804</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="S45" s="2" t="inlineStr">
@@ -6062,22 +6062,22 @@
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>317</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>105395</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>105395</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>105395</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
@@ -6097,22 +6097,22 @@
       </c>
       <c r="J51" s="2" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>482</t>
         </is>
       </c>
       <c r="K51" s="2" t="inlineStr">
         <is>
-          <t>116410</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>116410</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="M51" s="2" t="inlineStr">
         <is>
-          <t>116410</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="N51" s="2" t="inlineStr">
@@ -6132,22 +6132,22 @@
       </c>
       <c r="Q51" s="2" t="inlineStr">
         <is>
-          <t>1356</t>
+          <t>799</t>
         </is>
       </c>
       <c r="R51" s="2" t="inlineStr">
         <is>
-          <t>221804</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="S51" s="2" t="inlineStr">
         <is>
-          <t>221804</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="T51" s="2" t="inlineStr">
         <is>
-          <t>221804</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="U51" s="2" t="inlineStr">
@@ -6179,12 +6179,12 @@
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
@@ -6214,12 +6214,12 @@
       </c>
       <c r="J52" s="2" t="inlineStr">
         <is>
-          <t>807</t>
+          <t>443</t>
         </is>
       </c>
       <c r="K52" s="2" t="inlineStr">
         <is>
-          <t>132476</t>
+          <t>257807</t>
         </is>
       </c>
       <c r="L52" s="2" t="inlineStr">
@@ -6249,12 +6249,12 @@
       </c>
       <c r="Q52" s="2" t="inlineStr">
         <is>
-          <t>1362</t>
+          <t>674</t>
         </is>
       </c>
       <c r="R52" s="2" t="inlineStr">
         <is>
-          <t>221699</t>
+          <t>423387</t>
         </is>
       </c>
       <c r="S52" s="2" t="inlineStr">
@@ -6970,22 +6970,22 @@
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="F59" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="G59" s="2" t="inlineStr">
@@ -7005,22 +7005,22 @@
       </c>
       <c r="J59" s="2" t="inlineStr">
         <is>
-          <t>807</t>
+          <t>443</t>
         </is>
       </c>
       <c r="K59" s="2" t="inlineStr">
         <is>
-          <t>132476</t>
+          <t>257807</t>
         </is>
       </c>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>132476</t>
+          <t>257807</t>
         </is>
       </c>
       <c r="M59" s="2" t="inlineStr">
         <is>
-          <t>132476</t>
+          <t>257807</t>
         </is>
       </c>
       <c r="N59" s="2" t="inlineStr">
@@ -7040,22 +7040,22 @@
       </c>
       <c r="Q59" s="2" t="inlineStr">
         <is>
-          <t>1362</t>
+          <t>674</t>
         </is>
       </c>
       <c r="R59" s="2" t="inlineStr">
         <is>
-          <t>221699</t>
+          <t>423387</t>
         </is>
       </c>
       <c r="S59" s="2" t="inlineStr">
         <is>
-          <t>221699</t>
+          <t>423387</t>
         </is>
       </c>
       <c r="T59" s="2" t="inlineStr">
         <is>
-          <t>221699</t>
+          <t>423387</t>
         </is>
       </c>
       <c r="U59" s="2" t="inlineStr">
@@ -7087,107 +7087,107 @@
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t>81641</t>
+          <t>144931</t>
         </is>
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>96284</t>
+          <t>189198</t>
         </is>
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>12,25%</t>
+          <t>8,03%</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>11,21%</t>
+          <t>7,03%</t>
         </is>
       </c>
       <c r="I60" s="2" t="inlineStr">
         <is>
-          <t>13,22%</t>
+          <t>9,18%</t>
         </is>
       </c>
       <c r="J60" s="2" t="inlineStr">
         <is>
-          <t>807</t>
+          <t>443</t>
         </is>
       </c>
       <c r="K60" s="2" t="inlineStr">
         <is>
-          <t>132476</t>
+          <t>257807</t>
         </is>
       </c>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>124466</t>
+          <t>235079</t>
         </is>
       </c>
       <c r="M60" s="2" t="inlineStr">
         <is>
-          <t>142099</t>
+          <t>282666</t>
         </is>
       </c>
       <c r="N60" s="2" t="inlineStr">
         <is>
-          <t>16,51%</t>
+          <t>11,68%</t>
         </is>
       </c>
       <c r="O60" s="2" t="inlineStr">
         <is>
-          <t>15,51%</t>
+          <t>10,65%</t>
         </is>
       </c>
       <c r="P60" s="2" t="inlineStr">
         <is>
-          <t>17,71%</t>
+          <t>12,81%</t>
         </is>
       </c>
       <c r="Q60" s="2" t="inlineStr">
         <is>
-          <t>1362</t>
+          <t>674</t>
         </is>
       </c>
       <c r="R60" s="2" t="inlineStr">
         <is>
-          <t>221699</t>
+          <t>423387</t>
         </is>
       </c>
       <c r="S60" s="2" t="inlineStr">
         <is>
-          <t>211044</t>
+          <t>394001</t>
         </is>
       </c>
       <c r="T60" s="2" t="inlineStr">
         <is>
-          <t>233971</t>
+          <t>459225</t>
         </is>
       </c>
       <c r="U60" s="2" t="inlineStr">
         <is>
-          <t>14,48%</t>
+          <t>9,92%</t>
         </is>
       </c>
       <c r="V60" s="2" t="inlineStr">
         <is>
-          <t>13,79%</t>
+          <t>9,23%</t>
         </is>
       </c>
       <c r="W60" s="2" t="inlineStr">
         <is>
-          <t>15,28%</t>
+          <t>10,76%</t>
         </is>
       </c>
     </row>
@@ -7200,107 +7200,107 @@
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>317</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>105395</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t>97749</t>
+          <t>207263</t>
         </is>
       </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>113744</t>
+          <t>256033</t>
         </is>
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>14,47%</t>
+          <t>11,22%</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
         <is>
-          <t>13,42%</t>
+          <t>10,05%</t>
         </is>
       </c>
       <c r="I61" s="2" t="inlineStr">
         <is>
-          <t>15,62%</t>
+          <t>12,42%</t>
         </is>
       </c>
       <c r="J61" s="2" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>482</t>
         </is>
       </c>
       <c r="K61" s="2" t="inlineStr">
         <is>
-          <t>116410</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>108402</t>
+          <t>245935</t>
         </is>
       </c>
       <c r="M61" s="2" t="inlineStr">
         <is>
-          <t>125441</t>
+          <t>294395</t>
         </is>
       </c>
       <c r="N61" s="2" t="inlineStr">
         <is>
-          <t>14,51%</t>
+          <t>12,23%</t>
         </is>
       </c>
       <c r="O61" s="2" t="inlineStr">
         <is>
-          <t>13,51%</t>
+          <t>11,14%</t>
         </is>
       </c>
       <c r="P61" s="2" t="inlineStr">
         <is>
-          <t>15,63%</t>
+          <t>13,34%</t>
         </is>
       </c>
       <c r="Q61" s="2" t="inlineStr">
         <is>
-          <t>1356</t>
+          <t>799</t>
         </is>
       </c>
       <c r="R61" s="2" t="inlineStr">
         <is>
-          <t>221804</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="S61" s="2" t="inlineStr">
         <is>
-          <t>210717</t>
+          <t>467801</t>
         </is>
       </c>
       <c r="T61" s="2" t="inlineStr">
         <is>
-          <t>234181</t>
+          <t>536757</t>
         </is>
       </c>
       <c r="U61" s="2" t="inlineStr">
         <is>
-          <t>14,49%</t>
+          <t>11,74%</t>
         </is>
       </c>
       <c r="V61" s="2" t="inlineStr">
         <is>
-          <t>13,77%</t>
+          <t>10,96%</t>
         </is>
       </c>
       <c r="W61" s="2" t="inlineStr">
         <is>
-          <t>15,3%</t>
+          <t>12,57%</t>
         </is>
       </c>
     </row>
@@ -7313,107 +7313,107 @@
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>735</t>
+          <t>399</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>130180</t>
+          <t>369030</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
-          <t>120426</t>
+          <t>335896</t>
         </is>
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>138961</t>
+          <t>407043</t>
         </is>
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>17,87%</t>
+          <t>17,9%</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t>16,53%</t>
+          <t>16,29%</t>
         </is>
       </c>
       <c r="I62" s="2" t="inlineStr">
         <is>
-          <t>19,08%</t>
+          <t>19,75%</t>
         </is>
       </c>
       <c r="J62" s="2" t="inlineStr">
         <is>
-          <t>863</t>
+          <t>568</t>
         </is>
       </c>
       <c r="K62" s="2" t="inlineStr">
         <is>
-          <t>152870</t>
+          <t>361773</t>
         </is>
       </c>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>143531</t>
+          <t>333566</t>
         </is>
       </c>
       <c r="M62" s="2" t="inlineStr">
         <is>
-          <t>162949</t>
+          <t>389893</t>
         </is>
       </c>
       <c r="N62" s="2" t="inlineStr">
         <is>
-          <t>19,05%</t>
+          <t>16,39%</t>
         </is>
       </c>
       <c r="O62" s="2" t="inlineStr">
         <is>
-          <t>17,89%</t>
+          <t>15,11%</t>
         </is>
       </c>
       <c r="P62" s="2" t="inlineStr">
         <is>
-          <t>20,31%</t>
+          <t>17,66%</t>
         </is>
       </c>
       <c r="Q62" s="2" t="inlineStr">
         <is>
-          <t>1598</t>
+          <t>967</t>
         </is>
       </c>
       <c r="R62" s="2" t="inlineStr">
         <is>
-          <t>283051</t>
+          <t>730803</t>
         </is>
       </c>
       <c r="S62" s="2" t="inlineStr">
         <is>
-          <t>270240</t>
+          <t>688735</t>
         </is>
       </c>
       <c r="T62" s="2" t="inlineStr">
         <is>
-          <t>297313</t>
+          <t>774928</t>
         </is>
       </c>
       <c r="U62" s="2" t="inlineStr">
         <is>
-          <t>18,49%</t>
+          <t>17,12%</t>
         </is>
       </c>
       <c r="V62" s="2" t="inlineStr">
         <is>
-          <t>17,65%</t>
+          <t>16,13%</t>
         </is>
       </c>
       <c r="W62" s="2" t="inlineStr">
         <is>
-          <t>19,42%</t>
+          <t>18,15%</t>
         </is>
       </c>
     </row>
@@ -7426,107 +7426,107 @@
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>807</t>
+          <t>390</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>145717</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
-          <t>135805</t>
+          <t>385864</t>
         </is>
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>155402</t>
+          <t>461480</t>
         </is>
       </c>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>20,01%</t>
+          <t>20,57%</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr">
         <is>
-          <t>18,64%</t>
+          <t>18,72%</t>
         </is>
       </c>
       <c r="I63" s="2" t="inlineStr">
         <is>
-          <t>21,34%</t>
+          <t>22,39%</t>
         </is>
       </c>
       <c r="J63" s="2" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>660</t>
         </is>
       </c>
       <c r="K63" s="2" t="inlineStr">
         <is>
-          <t>153072</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>143029</t>
+          <t>409940</t>
         </is>
       </c>
       <c r="M63" s="2" t="inlineStr">
         <is>
-          <t>163190</t>
+          <t>475848</t>
         </is>
       </c>
       <c r="N63" s="2" t="inlineStr">
         <is>
-          <t>19,08%</t>
+          <t>19,99%</t>
         </is>
       </c>
       <c r="O63" s="2" t="inlineStr">
         <is>
-          <t>17,83%</t>
+          <t>18,57%</t>
         </is>
       </c>
       <c r="P63" s="2" t="inlineStr">
         <is>
-          <t>20,34%</t>
+          <t>21,56%</t>
         </is>
       </c>
       <c r="Q63" s="2" t="inlineStr">
         <is>
-          <t>1623</t>
+          <t>1050</t>
         </is>
       </c>
       <c r="R63" s="2" t="inlineStr">
         <is>
-          <t>298789</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="S63" s="2" t="inlineStr">
         <is>
-          <t>283691</t>
+          <t>819630</t>
         </is>
       </c>
       <c r="T63" s="2" t="inlineStr">
         <is>
-          <t>312203</t>
+          <t>918765</t>
         </is>
       </c>
       <c r="U63" s="2" t="inlineStr">
         <is>
-          <t>19,52%</t>
+          <t>20,27%</t>
         </is>
       </c>
       <c r="V63" s="2" t="inlineStr">
         <is>
-          <t>18,53%</t>
+          <t>19,2%</t>
         </is>
       </c>
       <c r="W63" s="2" t="inlineStr">
         <is>
-          <t>20,4%</t>
+          <t>21,52%</t>
         </is>
       </c>
     </row>
@@ -7539,107 +7539,107 @@
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>313</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>104353</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>96144</t>
+          <t>333716</t>
         </is>
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>112599</t>
+          <t>407987</t>
         </is>
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>14,33%</t>
+          <t>17,87%</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
         <is>
-          <t>13,2%</t>
+          <t>16,19%</t>
         </is>
       </c>
       <c r="I64" s="2" t="inlineStr">
         <is>
-          <t>15,46%</t>
+          <t>19,79%</t>
         </is>
       </c>
       <c r="J64" s="2" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>493</t>
         </is>
       </c>
       <c r="K64" s="2" t="inlineStr">
         <is>
-          <t>111458</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>102529</t>
+          <t>344270</t>
         </is>
       </c>
       <c r="M64" s="2" t="inlineStr">
         <is>
-          <t>120874</t>
+          <t>404645</t>
         </is>
       </c>
       <c r="N64" s="2" t="inlineStr">
         <is>
-          <t>13,89%</t>
+          <t>16,92%</t>
         </is>
       </c>
       <c r="O64" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>15,6%</t>
         </is>
       </c>
       <c r="P64" s="2" t="inlineStr">
         <is>
-          <t>15,06%</t>
+          <t>18,33%</t>
         </is>
       </c>
       <c r="Q64" s="2" t="inlineStr">
         <is>
-          <t>1157</t>
+          <t>806</t>
         </is>
       </c>
       <c r="R64" s="2" t="inlineStr">
         <is>
-          <t>215811</t>
+          <t>741704</t>
         </is>
       </c>
       <c r="S64" s="2" t="inlineStr">
         <is>
-          <t>202720</t>
+          <t>685473</t>
         </is>
       </c>
       <c r="T64" s="2" t="inlineStr">
         <is>
-          <t>228271</t>
+          <t>787425</t>
         </is>
       </c>
       <c r="U64" s="2" t="inlineStr">
         <is>
-          <t>14,1%</t>
+          <t>17,38%</t>
         </is>
       </c>
       <c r="V64" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>16,06%</t>
         </is>
       </c>
       <c r="W64" s="2" t="inlineStr">
         <is>
-          <t>14,91%</t>
+          <t>18,45%</t>
         </is>
       </c>
     </row>
@@ -7652,107 +7652,107 @@
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>75767</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>68295</t>
+          <t>223779</t>
         </is>
       </c>
       <c r="F65" s="2" t="inlineStr">
         <is>
-          <t>84092</t>
+          <t>307303</t>
         </is>
       </c>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>10,4%</t>
+          <t>12,71%</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr">
         <is>
-          <t>9,38%</t>
+          <t>10,86%</t>
         </is>
       </c>
       <c r="I65" s="2" t="inlineStr">
         <is>
-          <t>11,54%</t>
+          <t>14,91%</t>
         </is>
       </c>
       <c r="J65" s="2" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>249</t>
         </is>
       </c>
       <c r="K65" s="2" t="inlineStr">
         <is>
-          <t>69403</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="L65" s="2" t="inlineStr">
         <is>
-          <t>62506</t>
+          <t>249006</t>
         </is>
       </c>
       <c r="M65" s="2" t="inlineStr">
         <is>
-          <t>77192</t>
+          <t>318731</t>
         </is>
       </c>
       <c r="N65" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>12,84%</t>
         </is>
       </c>
       <c r="O65" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>11,28%</t>
         </is>
       </c>
       <c r="P65" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>14,44%</t>
         </is>
       </c>
       <c r="Q65" s="2" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>402</t>
         </is>
       </c>
       <c r="R65" s="2" t="inlineStr">
         <is>
-          <t>145171</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="S65" s="2" t="inlineStr">
         <is>
-          <t>134567</t>
+          <t>491758</t>
         </is>
       </c>
       <c r="T65" s="2" t="inlineStr">
         <is>
-          <t>156174</t>
+          <t>596450</t>
         </is>
       </c>
       <c r="U65" s="2" t="inlineStr">
         <is>
-          <t>9,48%</t>
+          <t>12,78%</t>
         </is>
       </c>
       <c r="V65" s="2" t="inlineStr">
         <is>
-          <t>8,79%</t>
+          <t>11,52%</t>
         </is>
       </c>
       <c r="W65" s="2" t="inlineStr">
         <is>
-          <t>10,2%</t>
+          <t>13,97%</t>
         </is>
       </c>
     </row>
@@ -7765,107 +7765,107 @@
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>77753</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>70153</t>
+          <t>198807</t>
         </is>
       </c>
       <c r="F66" s="2" t="inlineStr">
         <is>
-          <t>86871</t>
+          <t>293776</t>
         </is>
       </c>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>10,67%</t>
+          <t>11,7%</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>9,64%</t>
         </is>
       </c>
       <c r="I66" s="2" t="inlineStr">
         <is>
-          <t>11,93%</t>
+          <t>14,25%</t>
         </is>
       </c>
       <c r="J66" s="2" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>118</t>
         </is>
       </c>
       <c r="K66" s="2" t="inlineStr">
         <is>
-          <t>66683</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="L66" s="2" t="inlineStr">
         <is>
-          <t>59488</t>
+          <t>186046</t>
         </is>
       </c>
       <c r="M66" s="2" t="inlineStr">
         <is>
-          <t>74306</t>
+          <t>262656</t>
         </is>
       </c>
       <c r="N66" s="2" t="inlineStr">
         <is>
-          <t>8,31%</t>
+          <t>9,95%</t>
         </is>
       </c>
       <c r="O66" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>8,43%</t>
         </is>
       </c>
       <c r="P66" s="2" t="inlineStr">
         <is>
-          <t>9,26%</t>
+          <t>11,9%</t>
         </is>
       </c>
       <c r="Q66" s="2" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>212</t>
         </is>
       </c>
       <c r="R66" s="2" t="inlineStr">
         <is>
-          <t>144436</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="S66" s="2" t="inlineStr">
         <is>
-          <t>134097</t>
+          <t>402982</t>
         </is>
       </c>
       <c r="T66" s="2" t="inlineStr">
         <is>
-          <t>155539</t>
+          <t>525452</t>
         </is>
       </c>
       <c r="U66" s="2" t="inlineStr">
         <is>
+          <t>10,8%</t>
+        </is>
+      </c>
+      <c r="V66" s="2" t="inlineStr">
+        <is>
           <t>9,44%</t>
         </is>
       </c>
-      <c r="V66" s="2" t="inlineStr">
-        <is>
-          <t>8,76%</t>
-        </is>
-      </c>
       <c r="W66" s="2" t="inlineStr">
         <is>
-          <t>10,16%</t>
+          <t>12,31%</t>
         </is>
       </c>
     </row>
@@ -7878,22 +7878,22 @@
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>4098</t>
+          <t>1897</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>728388</t>
+          <t>2061382</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>728388</t>
+          <t>2061382</t>
         </is>
       </c>
       <c r="F67" s="2" t="inlineStr">
         <is>
-          <t>728388</t>
+          <t>2061382</t>
         </is>
       </c>
       <c r="G67" s="2" t="inlineStr">
@@ -7913,22 +7913,22 @@
       </c>
       <c r="J67" s="2" t="inlineStr">
         <is>
-          <t>4502</t>
+          <t>3013</t>
         </is>
       </c>
       <c r="K67" s="2" t="inlineStr">
         <is>
-          <t>802373</t>
+          <t>2207397</t>
         </is>
       </c>
       <c r="L67" s="2" t="inlineStr">
         <is>
-          <t>802373</t>
+          <t>2207397</t>
         </is>
       </c>
       <c r="M67" s="2" t="inlineStr">
         <is>
-          <t>802373</t>
+          <t>2207397</t>
         </is>
       </c>
       <c r="N67" s="2" t="inlineStr">
@@ -7948,22 +7948,22 @@
       </c>
       <c r="Q67" s="2" t="inlineStr">
         <is>
-          <t>8600</t>
+          <t>4910</t>
         </is>
       </c>
       <c r="R67" s="2" t="inlineStr">
         <is>
-          <t>1530761</t>
+          <t>4268779</t>
         </is>
       </c>
       <c r="S67" s="2" t="inlineStr">
         <is>
-          <t>1530761</t>
+          <t>4268779</t>
         </is>
       </c>
       <c r="T67" s="2" t="inlineStr">
         <is>
-          <t>1530761</t>
+          <t>4268779</t>
         </is>
       </c>
       <c r="U67" s="2" t="inlineStr">
@@ -8053,7 +8053,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Grupo de edad en Andalucia (tasa de respuesta: 100,0%)</t>
+          <t>Grupo de edad en Barcelona (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -8916,12 +8916,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>163</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>64673</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -8951,12 +8951,12 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>159</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>61540</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -8986,12 +8986,12 @@
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>322</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>126214</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
@@ -9029,22 +9029,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>163</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>64673</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>64673</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>64673</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -9064,22 +9064,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>159</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>61540</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>61540</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>61540</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -9099,22 +9099,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>322</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>126214</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>126214</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>126214</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -9711,12 +9711,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>123671</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -9746,12 +9746,12 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>286</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>128031</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
@@ -9781,12 +9781,12 @@
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>558</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>251702</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
@@ -9937,22 +9937,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>123671</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>123671</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>123671</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -9972,22 +9972,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>286</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>128031</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>128031</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>128031</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -10007,22 +10007,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>558</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>251702</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>251702</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>251702</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -10506,12 +10506,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>316</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>139367</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -10541,12 +10541,12 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>317</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>131431</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
@@ -10576,12 +10576,12 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>633</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>270797</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
@@ -10845,22 +10845,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>316</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>139367</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>139367</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>139367</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -10880,22 +10880,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>317</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>131431</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>131431</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>131431</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -10915,22 +10915,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>633</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>270797</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>270797</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>270797</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -11301,12 +11301,12 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>285</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>117651</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
@@ -11336,12 +11336,12 @@
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>297</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>119532</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
@@ -11371,12 +11371,12 @@
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>1050</t>
+          <t>582</t>
         </is>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>237183</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
@@ -11753,22 +11753,22 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>285</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>117651</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>117651</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>117651</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -11788,22 +11788,22 @@
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>297</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>119532</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>119532</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>119532</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -11823,22 +11823,22 @@
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>1050</t>
+          <t>582</t>
         </is>
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>237183</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>237183</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>237183</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
@@ -12096,12 +12096,12 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>340126</t>
+          <t>98013</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
@@ -12131,12 +12131,12 @@
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>276</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>321912</t>
+          <t>115860</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
@@ -12166,12 +12166,12 @@
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>967</t>
+          <t>507</t>
         </is>
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>662038</t>
+          <t>213874</t>
         </is>
       </c>
       <c r="S38" s="2" t="inlineStr">
@@ -12661,22 +12661,22 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>340126</t>
+          <t>98013</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>340126</t>
+          <t>98013</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>340126</t>
+          <t>98013</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
@@ -12696,22 +12696,22 @@
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>276</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>321912</t>
+          <t>115860</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>321912</t>
+          <t>115860</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>321912</t>
+          <t>115860</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
@@ -12731,22 +12731,22 @@
       </c>
       <c r="Q43" s="2" t="inlineStr">
         <is>
-          <t>967</t>
+          <t>507</t>
         </is>
       </c>
       <c r="R43" s="2" t="inlineStr">
         <is>
-          <t>662038</t>
+          <t>213874</t>
         </is>
       </c>
       <c r="S43" s="2" t="inlineStr">
         <is>
-          <t>662038</t>
+          <t>213874</t>
         </is>
       </c>
       <c r="T43" s="2" t="inlineStr">
         <is>
-          <t>662038</t>
+          <t>213874</t>
         </is>
       </c>
       <c r="U43" s="2" t="inlineStr">
@@ -12891,12 +12891,12 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>179</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>69102</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
@@ -12926,12 +12926,12 @@
       </c>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>228</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>88360</t>
         </is>
       </c>
       <c r="L45" s="2" t="inlineStr">
@@ -12961,12 +12961,12 @@
       </c>
       <c r="Q45" s="2" t="inlineStr">
         <is>
-          <t>799</t>
+          <t>407</t>
         </is>
       </c>
       <c r="R45" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>157462</t>
         </is>
       </c>
       <c r="S45" s="2" t="inlineStr">
@@ -13569,22 +13569,22 @@
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>179</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>69102</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>69102</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>69102</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
@@ -13604,22 +13604,22 @@
       </c>
       <c r="J51" s="2" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>228</t>
         </is>
       </c>
       <c r="K51" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>88360</t>
         </is>
       </c>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>88360</t>
         </is>
       </c>
       <c r="M51" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>88360</t>
         </is>
       </c>
       <c r="N51" s="2" t="inlineStr">
@@ -13639,22 +13639,22 @@
       </c>
       <c r="Q51" s="2" t="inlineStr">
         <is>
-          <t>799</t>
+          <t>407</t>
         </is>
       </c>
       <c r="R51" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>157462</t>
         </is>
       </c>
       <c r="S51" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>157462</t>
         </is>
       </c>
       <c r="T51" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>157462</t>
         </is>
       </c>
       <c r="U51" s="2" t="inlineStr">
@@ -13686,12 +13686,12 @@
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>193</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>69006</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
@@ -13721,12 +13721,12 @@
       </c>
       <c r="J52" s="2" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>310</t>
         </is>
       </c>
       <c r="K52" s="2" t="inlineStr">
         <is>
-          <t>234710</t>
+          <t>114365</t>
         </is>
       </c>
       <c r="L52" s="2" t="inlineStr">
@@ -13756,12 +13756,12 @@
       </c>
       <c r="Q52" s="2" t="inlineStr">
         <is>
-          <t>674</t>
+          <t>503</t>
         </is>
       </c>
       <c r="R52" s="2" t="inlineStr">
         <is>
-          <t>386485</t>
+          <t>183371</t>
         </is>
       </c>
       <c r="S52" s="2" t="inlineStr">
@@ -14477,22 +14477,22 @@
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>193</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>69006</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>69006</t>
         </is>
       </c>
       <c r="F59" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>69006</t>
         </is>
       </c>
       <c r="G59" s="2" t="inlineStr">
@@ -14512,22 +14512,22 @@
       </c>
       <c r="J59" s="2" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>310</t>
         </is>
       </c>
       <c r="K59" s="2" t="inlineStr">
         <is>
-          <t>234710</t>
+          <t>114365</t>
         </is>
       </c>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>234710</t>
+          <t>114365</t>
         </is>
       </c>
       <c r="M59" s="2" t="inlineStr">
         <is>
-          <t>234710</t>
+          <t>114365</t>
         </is>
       </c>
       <c r="N59" s="2" t="inlineStr">
@@ -14547,22 +14547,22 @@
       </c>
       <c r="Q59" s="2" t="inlineStr">
         <is>
-          <t>674</t>
+          <t>503</t>
         </is>
       </c>
       <c r="R59" s="2" t="inlineStr">
         <is>
-          <t>386485</t>
+          <t>183371</t>
         </is>
       </c>
       <c r="S59" s="2" t="inlineStr">
         <is>
-          <t>386485</t>
+          <t>183371</t>
         </is>
       </c>
       <c r="T59" s="2" t="inlineStr">
         <is>
-          <t>386485</t>
+          <t>183371</t>
         </is>
       </c>
       <c r="U59" s="2" t="inlineStr">
@@ -14594,107 +14594,107 @@
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>193</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>69006</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t>104878</t>
+          <t>58676</t>
         </is>
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>180556</t>
+          <t>80909</t>
         </is>
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>10,13%</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>8,61%</t>
         </is>
       </c>
       <c r="I60" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>11,87%</t>
         </is>
       </c>
       <c r="J60" s="2" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>310</t>
         </is>
       </c>
       <c r="K60" s="2" t="inlineStr">
         <is>
-          <t>234710</t>
+          <t>114365</t>
         </is>
       </c>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>173646</t>
+          <t>100655</t>
         </is>
       </c>
       <c r="M60" s="2" t="inlineStr">
         <is>
-          <t>272049</t>
+          <t>131752</t>
         </is>
       </c>
       <c r="N60" s="2" t="inlineStr">
         <is>
-          <t>10,5%</t>
+          <t>15,07%</t>
         </is>
       </c>
       <c r="O60" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>13,26%</t>
         </is>
       </c>
       <c r="P60" s="2" t="inlineStr">
         <is>
-          <t>12,17%</t>
+          <t>17,36%</t>
         </is>
       </c>
       <c r="Q60" s="2" t="inlineStr">
         <is>
-          <t>674</t>
+          <t>503</t>
         </is>
       </c>
       <c r="R60" s="2" t="inlineStr">
         <is>
-          <t>386485</t>
+          <t>183371</t>
         </is>
       </c>
       <c r="S60" s="2" t="inlineStr">
         <is>
-          <t>311594</t>
+          <t>163590</t>
         </is>
       </c>
       <c r="T60" s="2" t="inlineStr">
         <is>
-          <t>438021</t>
+          <t>201869</t>
         </is>
       </c>
       <c r="U60" s="2" t="inlineStr">
         <is>
-          <t>8,91%</t>
+          <t>12,73%</t>
         </is>
       </c>
       <c r="V60" s="2" t="inlineStr">
         <is>
-          <t>7,18%</t>
+          <t>11,36%</t>
         </is>
       </c>
       <c r="W60" s="2" t="inlineStr">
         <is>
-          <t>10,1%</t>
+          <t>14,01%</t>
         </is>
       </c>
     </row>
@@ -14707,107 +14707,107 @@
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>179</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>69102</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t>136930</t>
+          <t>58646</t>
         </is>
       </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>244536</t>
+          <t>83481</t>
         </is>
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>9,89%</t>
+          <t>10,14%</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>8,61%</t>
         </is>
       </c>
       <c r="I61" s="2" t="inlineStr">
         <is>
-          <t>11,63%</t>
+          <t>12,25%</t>
         </is>
       </c>
       <c r="J61" s="2" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>228</t>
         </is>
       </c>
       <c r="K61" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>88359</t>
         </is>
       </c>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>262239</t>
+          <t>76875</t>
         </is>
       </c>
       <c r="M61" s="2" t="inlineStr">
         <is>
-          <t>947023</t>
+          <t>104237</t>
         </is>
       </c>
       <c r="N61" s="2" t="inlineStr">
         <is>
-          <t>20,25%</t>
+          <t>11,64%</t>
         </is>
       </c>
       <c r="O61" s="2" t="inlineStr">
         <is>
-          <t>11,73%</t>
+          <t>10,13%</t>
         </is>
       </c>
       <c r="P61" s="2" t="inlineStr">
         <is>
-          <t>42,36%</t>
+          <t>13,73%</t>
         </is>
       </c>
       <c r="Q61" s="2" t="inlineStr">
         <is>
-          <t>799</t>
+          <t>407</t>
         </is>
       </c>
       <c r="R61" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>157462</t>
         </is>
       </c>
       <c r="S61" s="2" t="inlineStr">
         <is>
-          <t>451655</t>
+          <t>140776</t>
         </is>
       </c>
       <c r="T61" s="2" t="inlineStr">
         <is>
-          <t>1204683</t>
+          <t>176139</t>
         </is>
       </c>
       <c r="U61" s="2" t="inlineStr">
         <is>
-          <t>15,23%</t>
+          <t>10,93%</t>
         </is>
       </c>
       <c r="V61" s="2" t="inlineStr">
         <is>
-          <t>10,41%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="W61" s="2" t="inlineStr">
         <is>
-          <t>27,76%</t>
+          <t>12,23%</t>
         </is>
       </c>
     </row>
@@ -14820,107 +14820,107 @@
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>340126</t>
+          <t>98013</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
-          <t>220208</t>
+          <t>84812</t>
         </is>
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>395328</t>
+          <t>114516</t>
         </is>
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>16,17%</t>
+          <t>14,38%</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t>10,47%</t>
+          <t>12,45%</t>
         </is>
       </c>
       <c r="I62" s="2" t="inlineStr">
         <is>
-          <t>18,79%</t>
+          <t>16,8%</t>
         </is>
       </c>
       <c r="J62" s="2" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>276</t>
         </is>
       </c>
       <c r="K62" s="2" t="inlineStr">
         <is>
-          <t>321912</t>
+          <t>115860</t>
         </is>
       </c>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>237015</t>
+          <t>101940</t>
         </is>
       </c>
       <c r="M62" s="2" t="inlineStr">
         <is>
-          <t>369290</t>
+          <t>131676</t>
         </is>
       </c>
       <c r="N62" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>15,26%</t>
         </is>
       </c>
       <c r="O62" s="2" t="inlineStr">
         <is>
-          <t>10,6%</t>
+          <t>13,43%</t>
         </is>
       </c>
       <c r="P62" s="2" t="inlineStr">
         <is>
-          <t>16,52%</t>
+          <t>17,35%</t>
         </is>
       </c>
       <c r="Q62" s="2" t="inlineStr">
         <is>
-          <t>967</t>
+          <t>507</t>
         </is>
       </c>
       <c r="R62" s="2" t="inlineStr">
         <is>
-          <t>662038</t>
+          <t>213874</t>
         </is>
       </c>
       <c r="S62" s="2" t="inlineStr">
         <is>
-          <t>532627</t>
+          <t>194449</t>
         </is>
       </c>
       <c r="T62" s="2" t="inlineStr">
         <is>
-          <t>745234</t>
+          <t>236155</t>
         </is>
       </c>
       <c r="U62" s="2" t="inlineStr">
         <is>
-          <t>15,26%</t>
+          <t>14,85%</t>
         </is>
       </c>
       <c r="V62" s="2" t="inlineStr">
         <is>
-          <t>12,28%</t>
+          <t>13,5%</t>
         </is>
       </c>
       <c r="W62" s="2" t="inlineStr">
         <is>
-          <t>17,18%</t>
+          <t>16,39%</t>
         </is>
       </c>
     </row>
@@ -14933,107 +14933,107 @@
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>285</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>117652</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
-          <t>421798</t>
+          <t>103463</t>
         </is>
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>1100598</t>
+          <t>132514</t>
         </is>
       </c>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>29,81%</t>
+          <t>17,26%</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr">
         <is>
-          <t>20,05%</t>
+          <t>15,18%</t>
         </is>
       </c>
       <c r="I63" s="2" t="inlineStr">
         <is>
-          <t>52,32%</t>
+          <t>19,44%</t>
         </is>
       </c>
       <c r="J63" s="2" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>297</t>
         </is>
       </c>
       <c r="K63" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>119532</t>
         </is>
       </c>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>293410</t>
+          <t>105937</t>
         </is>
       </c>
       <c r="M63" s="2" t="inlineStr">
         <is>
-          <t>468100</t>
+          <t>133755</t>
         </is>
       </c>
       <c r="N63" s="2" t="inlineStr">
         <is>
-          <t>18,11%</t>
+          <t>15,75%</t>
         </is>
       </c>
       <c r="O63" s="2" t="inlineStr">
         <is>
-          <t>13,13%</t>
+          <t>13,96%</t>
         </is>
       </c>
       <c r="P63" s="2" t="inlineStr">
         <is>
-          <t>20,94%</t>
+          <t>17,62%</t>
         </is>
       </c>
       <c r="Q63" s="2" t="inlineStr">
         <is>
-          <t>1050</t>
+          <t>582</t>
         </is>
       </c>
       <c r="R63" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>237183</t>
         </is>
       </c>
       <c r="S63" s="2" t="inlineStr">
         <is>
-          <t>800885</t>
+          <t>217035</t>
         </is>
       </c>
       <c r="T63" s="2" t="inlineStr">
         <is>
-          <t>1696201</t>
+          <t>258583</t>
         </is>
       </c>
       <c r="U63" s="2" t="inlineStr">
         <is>
-          <t>23,78%</t>
+          <t>16,46%</t>
         </is>
       </c>
       <c r="V63" s="2" t="inlineStr">
         <is>
-          <t>18,46%</t>
+          <t>15,07%</t>
         </is>
       </c>
       <c r="W63" s="2" t="inlineStr">
         <is>
-          <t>39,09%</t>
+          <t>17,95%</t>
         </is>
       </c>
     </row>
@@ -15046,107 +15046,107 @@
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>316</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>139367</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>207522</t>
+          <t>125153</t>
         </is>
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>366637</t>
+          <t>158599</t>
         </is>
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>14,77%</t>
+          <t>20,45%</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
         <is>
-          <t>9,87%</t>
+          <t>18,36%</t>
         </is>
       </c>
       <c r="I64" s="2" t="inlineStr">
         <is>
-          <t>17,43%</t>
+          <t>23,27%</t>
         </is>
       </c>
       <c r="J64" s="2" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>317</t>
         </is>
       </c>
       <c r="K64" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>131431</t>
         </is>
       </c>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>237280</t>
+          <t>115789</t>
         </is>
       </c>
       <c r="M64" s="2" t="inlineStr">
         <is>
-          <t>376347</t>
+          <t>147487</t>
         </is>
       </c>
       <c r="N64" s="2" t="inlineStr">
         <is>
-          <t>14,43%</t>
+          <t>17,31%</t>
         </is>
       </c>
       <c r="O64" s="2" t="inlineStr">
         <is>
-          <t>10,61%</t>
+          <t>15,25%</t>
         </is>
       </c>
       <c r="P64" s="2" t="inlineStr">
         <is>
-          <t>16,84%</t>
+          <t>19,43%</t>
         </is>
       </c>
       <c r="Q64" s="2" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>633</t>
         </is>
       </c>
       <c r="R64" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>270797</t>
         </is>
       </c>
       <c r="S64" s="2" t="inlineStr">
         <is>
-          <t>509629</t>
+          <t>249058</t>
         </is>
       </c>
       <c r="T64" s="2" t="inlineStr">
         <is>
-          <t>714102</t>
+          <t>293839</t>
         </is>
       </c>
       <c r="U64" s="2" t="inlineStr">
         <is>
-          <t>14,6%</t>
+          <t>18,8%</t>
         </is>
       </c>
       <c r="V64" s="2" t="inlineStr">
         <is>
-          <t>11,75%</t>
+          <t>17,29%</t>
         </is>
       </c>
       <c r="W64" s="2" t="inlineStr">
         <is>
-          <t>16,46%</t>
+          <t>20,4%</t>
         </is>
       </c>
     </row>
@@ -15159,107 +15159,107 @@
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>123671</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>154492</t>
+          <t>109356</t>
         </is>
       </c>
       <c r="F65" s="2" t="inlineStr">
         <is>
-          <t>279523</t>
+          <t>139242</t>
         </is>
       </c>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>10,9%</t>
+          <t>18,15%</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr">
         <is>
-          <t>7,34%</t>
+          <t>16,05%</t>
         </is>
       </c>
       <c r="I65" s="2" t="inlineStr">
         <is>
-          <t>13,29%</t>
+          <t>20,43%</t>
         </is>
       </c>
       <c r="J65" s="2" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>286</t>
         </is>
       </c>
       <c r="K65" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>128031</t>
         </is>
       </c>
       <c r="L65" s="2" t="inlineStr">
         <is>
-          <t>230580</t>
+          <t>111772</t>
         </is>
       </c>
       <c r="M65" s="2" t="inlineStr">
         <is>
-          <t>504456</t>
+          <t>144137</t>
         </is>
       </c>
       <c r="N65" s="2" t="inlineStr">
         <is>
-          <t>14,07%</t>
+          <t>16,87%</t>
         </is>
       </c>
       <c r="O65" s="2" t="inlineStr">
         <is>
-          <t>10,31%</t>
+          <t>14,72%</t>
         </is>
       </c>
       <c r="P65" s="2" t="inlineStr">
         <is>
-          <t>22,57%</t>
+          <t>18,99%</t>
         </is>
       </c>
       <c r="Q65" s="2" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>558</t>
         </is>
       </c>
       <c r="R65" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>251702</t>
         </is>
       </c>
       <c r="S65" s="2" t="inlineStr">
         <is>
-          <t>437984</t>
+          <t>230100</t>
         </is>
       </c>
       <c r="T65" s="2" t="inlineStr">
         <is>
-          <t>750498</t>
+          <t>275596</t>
         </is>
       </c>
       <c r="U65" s="2" t="inlineStr">
         <is>
-          <t>12,53%</t>
+          <t>17,47%</t>
         </is>
       </c>
       <c r="V65" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>15,97%</t>
         </is>
       </c>
       <c r="W65" s="2" t="inlineStr">
         <is>
-          <t>17,3%</t>
+          <t>19,13%</t>
         </is>
       </c>
     </row>
@@ -15272,107 +15272,107 @@
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>163</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>64673</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>163537</t>
+          <t>54876</t>
         </is>
       </c>
       <c r="F66" s="2" t="inlineStr">
         <is>
-          <t>295642</t>
+          <t>76394</t>
         </is>
       </c>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>11,23%</t>
+          <t>9,49%</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="I66" s="2" t="inlineStr">
         <is>
-          <t>14,05%</t>
+          <t>11,21%</t>
         </is>
       </c>
       <c r="J66" s="2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>159</t>
         </is>
       </c>
       <c r="K66" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>61540</t>
         </is>
       </c>
       <c r="L66" s="2" t="inlineStr">
         <is>
-          <t>131854</t>
+          <t>52291</t>
         </is>
       </c>
       <c r="M66" s="2" t="inlineStr">
         <is>
-          <t>230694</t>
+          <t>73003</t>
         </is>
       </c>
       <c r="N66" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="O66" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="P66" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="Q66" s="2" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>322</t>
         </is>
       </c>
       <c r="R66" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>126213</t>
         </is>
       </c>
       <c r="S66" s="2" t="inlineStr">
         <is>
-          <t>332971</t>
+          <t>112548</t>
         </is>
       </c>
       <c r="T66" s="2" t="inlineStr">
         <is>
-          <t>502119</t>
+          <t>141430</t>
         </is>
       </c>
       <c r="U66" s="2" t="inlineStr">
         <is>
-          <t>9,69%</t>
+          <t>8,76%</t>
         </is>
       </c>
       <c r="V66" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="W66" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>9,82%</t>
         </is>
       </c>
     </row>
@@ -15385,22 +15385,22 @@
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>1897</t>
+          <t>1639</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>2103522</t>
+          <t>681484</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>2103522</t>
+          <t>681484</t>
         </is>
       </c>
       <c r="F67" s="2" t="inlineStr">
         <is>
-          <t>2103522</t>
+          <t>681484</t>
         </is>
       </c>
       <c r="G67" s="2" t="inlineStr">
@@ -15420,22 +15420,22 @@
       </c>
       <c r="J67" s="2" t="inlineStr">
         <is>
-          <t>3013</t>
+          <t>1873</t>
         </is>
       </c>
       <c r="K67" s="2" t="inlineStr">
         <is>
-          <t>2235460</t>
+          <t>759118</t>
         </is>
       </c>
       <c r="L67" s="2" t="inlineStr">
         <is>
-          <t>2235460</t>
+          <t>759118</t>
         </is>
       </c>
       <c r="M67" s="2" t="inlineStr">
         <is>
-          <t>2235460</t>
+          <t>759118</t>
         </is>
       </c>
       <c r="N67" s="2" t="inlineStr">
@@ -15455,22 +15455,22 @@
       </c>
       <c r="Q67" s="2" t="inlineStr">
         <is>
-          <t>4910</t>
+          <t>3512</t>
         </is>
       </c>
       <c r="R67" s="2" t="inlineStr">
         <is>
-          <t>4338982</t>
+          <t>1440602</t>
         </is>
       </c>
       <c r="S67" s="2" t="inlineStr">
         <is>
-          <t>4338982</t>
+          <t>1440602</t>
         </is>
       </c>
       <c r="T67" s="2" t="inlineStr">
         <is>
-          <t>4338982</t>
+          <t>1440602</t>
         </is>
       </c>
       <c r="U67" s="2" t="inlineStr">
@@ -23067,7 +23067,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Grupo de edad en Barcelona (tasa de respuesta: 100,0%)</t>
+          <t>Grupo de edad en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -23930,12 +23930,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>380</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>64673</t>
+          <t>77753</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -23965,12 +23965,12 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>350</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>61540</t>
+          <t>66683</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -24000,12 +24000,12 @@
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>730</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>126214</t>
+          <t>144436</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
@@ -24043,22 +24043,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>380</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>64673</t>
+          <t>77753</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>64673</t>
+          <t>77753</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>64673</t>
+          <t>77753</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -24078,22 +24078,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>350</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>61540</t>
+          <t>66683</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>61540</t>
+          <t>66683</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>61540</t>
+          <t>66683</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -24113,22 +24113,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>730</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>126214</t>
+          <t>144436</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>126214</t>
+          <t>144436</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>126214</t>
+          <t>144436</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -24725,12 +24725,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>400</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>123671</t>
+          <t>75767</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -24760,12 +24760,12 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>374</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>128031</t>
+          <t>69403</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
@@ -24795,12 +24795,12 @@
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>774</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>251702</t>
+          <t>145171</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
@@ -24951,22 +24951,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>400</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>123671</t>
+          <t>75767</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>123671</t>
+          <t>75767</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>123671</t>
+          <t>75767</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -24986,22 +24986,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>374</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>128031</t>
+          <t>69403</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>128031</t>
+          <t>69403</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>128031</t>
+          <t>69403</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -25021,22 +25021,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>774</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>251702</t>
+          <t>145171</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>251702</t>
+          <t>145171</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>251702</t>
+          <t>145171</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -25520,12 +25520,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>571</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>139367</t>
+          <t>104353</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -25555,12 +25555,12 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>586</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>131431</t>
+          <t>111458</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
@@ -25590,12 +25590,12 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>1157</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>270797</t>
+          <t>215811</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
@@ -25859,22 +25859,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>571</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>139367</t>
+          <t>104353</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>139367</t>
+          <t>104353</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>139367</t>
+          <t>104353</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -25894,22 +25894,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>586</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>131431</t>
+          <t>111458</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>131431</t>
+          <t>111458</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>131431</t>
+          <t>111458</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -25929,22 +25929,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>1157</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>270797</t>
+          <t>215811</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>270797</t>
+          <t>215811</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>270797</t>
+          <t>215811</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -26315,12 +26315,12 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>807</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>117651</t>
+          <t>145717</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
@@ -26350,12 +26350,12 @@
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>816</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>119532</t>
+          <t>153072</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
@@ -26385,12 +26385,12 @@
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>1623</t>
         </is>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>237183</t>
+          <t>298789</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
@@ -26767,22 +26767,22 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>807</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>117651</t>
+          <t>145717</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>117651</t>
+          <t>145717</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>117651</t>
+          <t>145717</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -26802,22 +26802,22 @@
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>816</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>119532</t>
+          <t>153072</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>119532</t>
+          <t>153072</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>119532</t>
+          <t>153072</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -26837,22 +26837,22 @@
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>1623</t>
         </is>
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>237183</t>
+          <t>298789</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>237183</t>
+          <t>298789</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>237183</t>
+          <t>298789</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
@@ -27110,12 +27110,12 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>735</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>98013</t>
+          <t>130180</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
@@ -27145,12 +27145,12 @@
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>863</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>115860</t>
+          <t>152870</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
@@ -27180,12 +27180,12 @@
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>1598</t>
         </is>
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>213874</t>
+          <t>283051</t>
         </is>
       </c>
       <c r="S38" s="2" t="inlineStr">
@@ -27675,22 +27675,22 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>735</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>98013</t>
+          <t>130180</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>98013</t>
+          <t>130180</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>98013</t>
+          <t>130180</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
@@ -27710,22 +27710,22 @@
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>863</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>115860</t>
+          <t>152870</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>115860</t>
+          <t>152870</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>115860</t>
+          <t>152870</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
@@ -27745,22 +27745,22 @@
       </c>
       <c r="Q43" s="2" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>1598</t>
         </is>
       </c>
       <c r="R43" s="2" t="inlineStr">
         <is>
-          <t>213874</t>
+          <t>283051</t>
         </is>
       </c>
       <c r="S43" s="2" t="inlineStr">
         <is>
-          <t>213874</t>
+          <t>283051</t>
         </is>
       </c>
       <c r="T43" s="2" t="inlineStr">
         <is>
-          <t>213874</t>
+          <t>283051</t>
         </is>
       </c>
       <c r="U43" s="2" t="inlineStr">
@@ -27905,12 +27905,12 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>650</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>69102</t>
+          <t>105395</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
@@ -27940,12 +27940,12 @@
       </c>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>706</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>88360</t>
+          <t>116410</t>
         </is>
       </c>
       <c r="L45" s="2" t="inlineStr">
@@ -27975,12 +27975,12 @@
       </c>
       <c r="Q45" s="2" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>1356</t>
         </is>
       </c>
       <c r="R45" s="2" t="inlineStr">
         <is>
-          <t>157462</t>
+          <t>221804</t>
         </is>
       </c>
       <c r="S45" s="2" t="inlineStr">
@@ -28583,22 +28583,22 @@
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>650</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>69102</t>
+          <t>105395</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>69102</t>
+          <t>105395</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>69102</t>
+          <t>105395</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
@@ -28618,22 +28618,22 @@
       </c>
       <c r="J51" s="2" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>706</t>
         </is>
       </c>
       <c r="K51" s="2" t="inlineStr">
         <is>
-          <t>88360</t>
+          <t>116410</t>
         </is>
       </c>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>88360</t>
+          <t>116410</t>
         </is>
       </c>
       <c r="M51" s="2" t="inlineStr">
         <is>
-          <t>88360</t>
+          <t>116410</t>
         </is>
       </c>
       <c r="N51" s="2" t="inlineStr">
@@ -28653,22 +28653,22 @@
       </c>
       <c r="Q51" s="2" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>1356</t>
         </is>
       </c>
       <c r="R51" s="2" t="inlineStr">
         <is>
-          <t>157462</t>
+          <t>221804</t>
         </is>
       </c>
       <c r="S51" s="2" t="inlineStr">
         <is>
-          <t>157462</t>
+          <t>221804</t>
         </is>
       </c>
       <c r="T51" s="2" t="inlineStr">
         <is>
-          <t>157462</t>
+          <t>221804</t>
         </is>
       </c>
       <c r="U51" s="2" t="inlineStr">
@@ -28700,12 +28700,12 @@
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>555</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>69006</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
@@ -28735,12 +28735,12 @@
       </c>
       <c r="J52" s="2" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>807</t>
         </is>
       </c>
       <c r="K52" s="2" t="inlineStr">
         <is>
-          <t>114365</t>
+          <t>132476</t>
         </is>
       </c>
       <c r="L52" s="2" t="inlineStr">
@@ -28770,12 +28770,12 @@
       </c>
       <c r="Q52" s="2" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>1362</t>
         </is>
       </c>
       <c r="R52" s="2" t="inlineStr">
         <is>
-          <t>183371</t>
+          <t>221699</t>
         </is>
       </c>
       <c r="S52" s="2" t="inlineStr">
@@ -29491,22 +29491,22 @@
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>555</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>69006</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t>69006</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="F59" s="2" t="inlineStr">
         <is>
-          <t>69006</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="G59" s="2" t="inlineStr">
@@ -29526,22 +29526,22 @@
       </c>
       <c r="J59" s="2" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>807</t>
         </is>
       </c>
       <c r="K59" s="2" t="inlineStr">
         <is>
-          <t>114365</t>
+          <t>132476</t>
         </is>
       </c>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>114365</t>
+          <t>132476</t>
         </is>
       </c>
       <c r="M59" s="2" t="inlineStr">
         <is>
-          <t>114365</t>
+          <t>132476</t>
         </is>
       </c>
       <c r="N59" s="2" t="inlineStr">
@@ -29561,22 +29561,22 @@
       </c>
       <c r="Q59" s="2" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>1362</t>
         </is>
       </c>
       <c r="R59" s="2" t="inlineStr">
         <is>
-          <t>183371</t>
+          <t>221699</t>
         </is>
       </c>
       <c r="S59" s="2" t="inlineStr">
         <is>
-          <t>183371</t>
+          <t>221699</t>
         </is>
       </c>
       <c r="T59" s="2" t="inlineStr">
         <is>
-          <t>183371</t>
+          <t>221699</t>
         </is>
       </c>
       <c r="U59" s="2" t="inlineStr">
@@ -29608,107 +29608,107 @@
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>555</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>69006</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t>58676</t>
+          <t>81641</t>
         </is>
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>80909</t>
+          <t>96284</t>
         </is>
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>10,13%</t>
+          <t>12,25%</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>8,61%</t>
+          <t>11,21%</t>
         </is>
       </c>
       <c r="I60" s="2" t="inlineStr">
         <is>
-          <t>11,87%</t>
+          <t>13,22%</t>
         </is>
       </c>
       <c r="J60" s="2" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>807</t>
         </is>
       </c>
       <c r="K60" s="2" t="inlineStr">
         <is>
-          <t>114365</t>
+          <t>132476</t>
         </is>
       </c>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>100655</t>
+          <t>124466</t>
         </is>
       </c>
       <c r="M60" s="2" t="inlineStr">
         <is>
-          <t>131752</t>
+          <t>142099</t>
         </is>
       </c>
       <c r="N60" s="2" t="inlineStr">
         <is>
-          <t>15,07%</t>
+          <t>16,51%</t>
         </is>
       </c>
       <c r="O60" s="2" t="inlineStr">
         <is>
-          <t>13,26%</t>
+          <t>15,51%</t>
         </is>
       </c>
       <c r="P60" s="2" t="inlineStr">
         <is>
-          <t>17,36%</t>
+          <t>17,71%</t>
         </is>
       </c>
       <c r="Q60" s="2" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>1362</t>
         </is>
       </c>
       <c r="R60" s="2" t="inlineStr">
         <is>
-          <t>183371</t>
+          <t>221699</t>
         </is>
       </c>
       <c r="S60" s="2" t="inlineStr">
         <is>
-          <t>163590</t>
+          <t>211044</t>
         </is>
       </c>
       <c r="T60" s="2" t="inlineStr">
         <is>
-          <t>201869</t>
+          <t>233971</t>
         </is>
       </c>
       <c r="U60" s="2" t="inlineStr">
         <is>
-          <t>12,73%</t>
+          <t>14,48%</t>
         </is>
       </c>
       <c r="V60" s="2" t="inlineStr">
         <is>
-          <t>11,36%</t>
+          <t>13,79%</t>
         </is>
       </c>
       <c r="W60" s="2" t="inlineStr">
         <is>
-          <t>14,01%</t>
+          <t>15,28%</t>
         </is>
       </c>
     </row>
@@ -29721,107 +29721,107 @@
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>650</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>69102</t>
+          <t>105395</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t>58646</t>
+          <t>97749</t>
         </is>
       </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>83481</t>
+          <t>113744</t>
         </is>
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>14,47%</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
         <is>
-          <t>8,61%</t>
+          <t>13,42%</t>
         </is>
       </c>
       <c r="I61" s="2" t="inlineStr">
         <is>
-          <t>12,25%</t>
+          <t>15,62%</t>
         </is>
       </c>
       <c r="J61" s="2" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>706</t>
         </is>
       </c>
       <c r="K61" s="2" t="inlineStr">
         <is>
-          <t>88359</t>
+          <t>116410</t>
         </is>
       </c>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>76875</t>
+          <t>108402</t>
         </is>
       </c>
       <c r="M61" s="2" t="inlineStr">
         <is>
-          <t>104237</t>
+          <t>125441</t>
         </is>
       </c>
       <c r="N61" s="2" t="inlineStr">
         <is>
-          <t>11,64%</t>
+          <t>14,51%</t>
         </is>
       </c>
       <c r="O61" s="2" t="inlineStr">
         <is>
-          <t>10,13%</t>
+          <t>13,51%</t>
         </is>
       </c>
       <c r="P61" s="2" t="inlineStr">
         <is>
-          <t>13,73%</t>
+          <t>15,63%</t>
         </is>
       </c>
       <c r="Q61" s="2" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>1356</t>
         </is>
       </c>
       <c r="R61" s="2" t="inlineStr">
         <is>
-          <t>157462</t>
+          <t>221804</t>
         </is>
       </c>
       <c r="S61" s="2" t="inlineStr">
         <is>
-          <t>140776</t>
+          <t>210717</t>
         </is>
       </c>
       <c r="T61" s="2" t="inlineStr">
         <is>
-          <t>176139</t>
+          <t>234181</t>
         </is>
       </c>
       <c r="U61" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>14,49%</t>
         </is>
       </c>
       <c r="V61" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>13,77%</t>
         </is>
       </c>
       <c r="W61" s="2" t="inlineStr">
         <is>
-          <t>12,23%</t>
+          <t>15,3%</t>
         </is>
       </c>
     </row>
@@ -29834,107 +29834,107 @@
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>735</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>98013</t>
+          <t>130180</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
-          <t>84812</t>
+          <t>120426</t>
         </is>
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>114516</t>
+          <t>138961</t>
         </is>
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>17,87%</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t>12,45%</t>
+          <t>16,53%</t>
         </is>
       </c>
       <c r="I62" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
+          <t>19,08%</t>
         </is>
       </c>
       <c r="J62" s="2" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>863</t>
         </is>
       </c>
       <c r="K62" s="2" t="inlineStr">
         <is>
-          <t>115860</t>
+          <t>152870</t>
         </is>
       </c>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>101940</t>
+          <t>143531</t>
         </is>
       </c>
       <c r="M62" s="2" t="inlineStr">
         <is>
-          <t>131676</t>
+          <t>162949</t>
         </is>
       </c>
       <c r="N62" s="2" t="inlineStr">
         <is>
-          <t>15,26%</t>
+          <t>19,05%</t>
         </is>
       </c>
       <c r="O62" s="2" t="inlineStr">
         <is>
-          <t>13,43%</t>
+          <t>17,89%</t>
         </is>
       </c>
       <c r="P62" s="2" t="inlineStr">
         <is>
-          <t>17,35%</t>
+          <t>20,31%</t>
         </is>
       </c>
       <c r="Q62" s="2" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>1598</t>
         </is>
       </c>
       <c r="R62" s="2" t="inlineStr">
         <is>
-          <t>213874</t>
+          <t>283051</t>
         </is>
       </c>
       <c r="S62" s="2" t="inlineStr">
         <is>
-          <t>194449</t>
+          <t>270240</t>
         </is>
       </c>
       <c r="T62" s="2" t="inlineStr">
         <is>
-          <t>236155</t>
+          <t>297313</t>
         </is>
       </c>
       <c r="U62" s="2" t="inlineStr">
         <is>
-          <t>14,85%</t>
+          <t>18,49%</t>
         </is>
       </c>
       <c r="V62" s="2" t="inlineStr">
         <is>
-          <t>13,5%</t>
+          <t>17,65%</t>
         </is>
       </c>
       <c r="W62" s="2" t="inlineStr">
         <is>
-          <t>16,39%</t>
+          <t>19,42%</t>
         </is>
       </c>
     </row>
@@ -29947,107 +29947,107 @@
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>807</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>117652</t>
+          <t>145717</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
-          <t>103463</t>
+          <t>135805</t>
         </is>
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>132514</t>
+          <t>155402</t>
         </is>
       </c>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>17,26%</t>
+          <t>20,01%</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr">
         <is>
-          <t>15,18%</t>
+          <t>18,64%</t>
         </is>
       </c>
       <c r="I63" s="2" t="inlineStr">
         <is>
-          <t>19,44%</t>
+          <t>21,34%</t>
         </is>
       </c>
       <c r="J63" s="2" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>816</t>
         </is>
       </c>
       <c r="K63" s="2" t="inlineStr">
         <is>
-          <t>119532</t>
+          <t>153072</t>
         </is>
       </c>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>105937</t>
+          <t>143029</t>
         </is>
       </c>
       <c r="M63" s="2" t="inlineStr">
         <is>
-          <t>133755</t>
+          <t>163190</t>
         </is>
       </c>
       <c r="N63" s="2" t="inlineStr">
         <is>
-          <t>15,75%</t>
+          <t>19,08%</t>
         </is>
       </c>
       <c r="O63" s="2" t="inlineStr">
         <is>
-          <t>13,96%</t>
+          <t>17,83%</t>
         </is>
       </c>
       <c r="P63" s="2" t="inlineStr">
         <is>
-          <t>17,62%</t>
+          <t>20,34%</t>
         </is>
       </c>
       <c r="Q63" s="2" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>1623</t>
         </is>
       </c>
       <c r="R63" s="2" t="inlineStr">
         <is>
-          <t>237183</t>
+          <t>298789</t>
         </is>
       </c>
       <c r="S63" s="2" t="inlineStr">
         <is>
-          <t>217035</t>
+          <t>283691</t>
         </is>
       </c>
       <c r="T63" s="2" t="inlineStr">
         <is>
-          <t>258583</t>
+          <t>312203</t>
         </is>
       </c>
       <c r="U63" s="2" t="inlineStr">
         <is>
-          <t>16,46%</t>
+          <t>19,52%</t>
         </is>
       </c>
       <c r="V63" s="2" t="inlineStr">
         <is>
-          <t>15,07%</t>
+          <t>18,53%</t>
         </is>
       </c>
       <c r="W63" s="2" t="inlineStr">
         <is>
-          <t>17,95%</t>
+          <t>20,4%</t>
         </is>
       </c>
     </row>
@@ -30060,107 +30060,107 @@
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>571</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>139367</t>
+          <t>104353</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>125153</t>
+          <t>96144</t>
         </is>
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>158599</t>
+          <t>112599</t>
         </is>
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>20,45%</t>
+          <t>14,33%</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
         <is>
-          <t>18,36%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="I64" s="2" t="inlineStr">
         <is>
-          <t>23,27%</t>
+          <t>15,46%</t>
         </is>
       </c>
       <c r="J64" s="2" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>586</t>
         </is>
       </c>
       <c r="K64" s="2" t="inlineStr">
         <is>
-          <t>131431</t>
+          <t>111458</t>
         </is>
       </c>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>115789</t>
+          <t>102529</t>
         </is>
       </c>
       <c r="M64" s="2" t="inlineStr">
         <is>
-          <t>147487</t>
+          <t>120874</t>
         </is>
       </c>
       <c r="N64" s="2" t="inlineStr">
         <is>
-          <t>17,31%</t>
+          <t>13,89%</t>
         </is>
       </c>
       <c r="O64" s="2" t="inlineStr">
         <is>
-          <t>15,25%</t>
+          <t>12,78%</t>
         </is>
       </c>
       <c r="P64" s="2" t="inlineStr">
         <is>
-          <t>19,43%</t>
+          <t>15,06%</t>
         </is>
       </c>
       <c r="Q64" s="2" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>1157</t>
         </is>
       </c>
       <c r="R64" s="2" t="inlineStr">
         <is>
-          <t>270797</t>
+          <t>215811</t>
         </is>
       </c>
       <c r="S64" s="2" t="inlineStr">
         <is>
-          <t>249058</t>
+          <t>202720</t>
         </is>
       </c>
       <c r="T64" s="2" t="inlineStr">
         <is>
-          <t>293839</t>
+          <t>228271</t>
         </is>
       </c>
       <c r="U64" s="2" t="inlineStr">
         <is>
-          <t>18,8%</t>
+          <t>14,1%</t>
         </is>
       </c>
       <c r="V64" s="2" t="inlineStr">
         <is>
-          <t>17,29%</t>
+          <t>13,24%</t>
         </is>
       </c>
       <c r="W64" s="2" t="inlineStr">
         <is>
-          <t>20,4%</t>
+          <t>14,91%</t>
         </is>
       </c>
     </row>
@@ -30173,107 +30173,107 @@
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>400</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>123671</t>
+          <t>75767</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>109356</t>
+          <t>68295</t>
         </is>
       </c>
       <c r="F65" s="2" t="inlineStr">
         <is>
-          <t>139242</t>
+          <t>84092</t>
         </is>
       </c>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>18,15%</t>
+          <t>10,4%</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr">
         <is>
-          <t>16,05%</t>
+          <t>9,38%</t>
         </is>
       </c>
       <c r="I65" s="2" t="inlineStr">
         <is>
-          <t>20,43%</t>
+          <t>11,54%</t>
         </is>
       </c>
       <c r="J65" s="2" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>374</t>
         </is>
       </c>
       <c r="K65" s="2" t="inlineStr">
         <is>
-          <t>128031</t>
+          <t>69403</t>
         </is>
       </c>
       <c r="L65" s="2" t="inlineStr">
         <is>
-          <t>111772</t>
+          <t>62506</t>
         </is>
       </c>
       <c r="M65" s="2" t="inlineStr">
         <is>
-          <t>144137</t>
+          <t>77192</t>
         </is>
       </c>
       <c r="N65" s="2" t="inlineStr">
         <is>
-          <t>16,87%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="O65" s="2" t="inlineStr">
         <is>
-          <t>14,72%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="P65" s="2" t="inlineStr">
         <is>
-          <t>18,99%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="Q65" s="2" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>774</t>
         </is>
       </c>
       <c r="R65" s="2" t="inlineStr">
         <is>
-          <t>251702</t>
+          <t>145171</t>
         </is>
       </c>
       <c r="S65" s="2" t="inlineStr">
         <is>
-          <t>230100</t>
+          <t>134567</t>
         </is>
       </c>
       <c r="T65" s="2" t="inlineStr">
         <is>
-          <t>275596</t>
+          <t>156174</t>
         </is>
       </c>
       <c r="U65" s="2" t="inlineStr">
         <is>
-          <t>17,47%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="V65" s="2" t="inlineStr">
         <is>
-          <t>15,97%</t>
+          <t>8,79%</t>
         </is>
       </c>
       <c r="W65" s="2" t="inlineStr">
         <is>
-          <t>19,13%</t>
+          <t>10,2%</t>
         </is>
       </c>
     </row>
@@ -30286,107 +30286,107 @@
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>380</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>64673</t>
+          <t>77753</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>54876</t>
+          <t>70153</t>
         </is>
       </c>
       <c r="F66" s="2" t="inlineStr">
         <is>
-          <t>76394</t>
+          <t>86871</t>
         </is>
       </c>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>10,67%</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="I66" s="2" t="inlineStr">
         <is>
-          <t>11,21%</t>
+          <t>11,93%</t>
         </is>
       </c>
       <c r="J66" s="2" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>350</t>
         </is>
       </c>
       <c r="K66" s="2" t="inlineStr">
         <is>
-          <t>61540</t>
+          <t>66683</t>
         </is>
       </c>
       <c r="L66" s="2" t="inlineStr">
         <is>
-          <t>52291</t>
+          <t>59488</t>
         </is>
       </c>
       <c r="M66" s="2" t="inlineStr">
         <is>
-          <t>73003</t>
+          <t>74306</t>
         </is>
       </c>
       <c r="N66" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>8,31%</t>
         </is>
       </c>
       <c r="O66" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="P66" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="Q66" s="2" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>730</t>
         </is>
       </c>
       <c r="R66" s="2" t="inlineStr">
         <is>
-          <t>126213</t>
+          <t>144436</t>
         </is>
       </c>
       <c r="S66" s="2" t="inlineStr">
         <is>
-          <t>112548</t>
+          <t>134097</t>
         </is>
       </c>
       <c r="T66" s="2" t="inlineStr">
         <is>
-          <t>141430</t>
+          <t>155539</t>
         </is>
       </c>
       <c r="U66" s="2" t="inlineStr">
         <is>
+          <t>9,44%</t>
+        </is>
+      </c>
+      <c r="V66" s="2" t="inlineStr">
+        <is>
           <t>8,76%</t>
         </is>
       </c>
-      <c r="V66" s="2" t="inlineStr">
-        <is>
-          <t>7,81%</t>
-        </is>
-      </c>
       <c r="W66" s="2" t="inlineStr">
         <is>
-          <t>9,82%</t>
+          <t>10,16%</t>
         </is>
       </c>
     </row>
@@ -30399,22 +30399,22 @@
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>1639</t>
+          <t>4098</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>681484</t>
+          <t>728388</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>681484</t>
+          <t>728388</t>
         </is>
       </c>
       <c r="F67" s="2" t="inlineStr">
         <is>
-          <t>681484</t>
+          <t>728388</t>
         </is>
       </c>
       <c r="G67" s="2" t="inlineStr">
@@ -30434,22 +30434,22 @@
       </c>
       <c r="J67" s="2" t="inlineStr">
         <is>
-          <t>1873</t>
+          <t>4502</t>
         </is>
       </c>
       <c r="K67" s="2" t="inlineStr">
         <is>
-          <t>759118</t>
+          <t>802373</t>
         </is>
       </c>
       <c r="L67" s="2" t="inlineStr">
         <is>
-          <t>759118</t>
+          <t>802373</t>
         </is>
       </c>
       <c r="M67" s="2" t="inlineStr">
         <is>
-          <t>759118</t>
+          <t>802373</t>
         </is>
       </c>
       <c r="N67" s="2" t="inlineStr">
@@ -30469,22 +30469,22 @@
       </c>
       <c r="Q67" s="2" t="inlineStr">
         <is>
-          <t>3512</t>
+          <t>8600</t>
         </is>
       </c>
       <c r="R67" s="2" t="inlineStr">
         <is>
-          <t>1440602</t>
+          <t>1530761</t>
         </is>
       </c>
       <c r="S67" s="2" t="inlineStr">
         <is>
-          <t>1440602</t>
+          <t>1530761</t>
         </is>
       </c>
       <c r="T67" s="2" t="inlineStr">
         <is>
-          <t>1440602</t>
+          <t>1530761</t>
         </is>
       </c>
       <c r="U67" s="2" t="inlineStr">
